--- a/Jogos_do_Dia/2023-06-18_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-18_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="172">
   <si>
     <t>League</t>
   </si>
@@ -136,15 +136,15 @@
     <t>Uruguay Segunda División</t>
   </si>
   <si>
+    <t>Argentina Prim B Nacional</t>
+  </si>
+  <si>
+    <t>Chile Primera B</t>
+  </si>
+  <si>
     <t>Chile Segunda División</t>
   </si>
   <si>
-    <t>Argentina Prim B Nacional</t>
-  </si>
-  <si>
-    <t>Chile Primera B</t>
-  </si>
-  <si>
     <t>Brazil Serie C</t>
   </si>
   <si>
@@ -181,9 +181,6 @@
     <t>12:30:00</t>
   </si>
   <si>
-    <t>13:00:00</t>
-  </si>
-  <si>
     <t>13:10:00</t>
   </si>
   <si>
@@ -244,12 +241,12 @@
     <t>Iwaki</t>
   </si>
   <si>
+    <t>Tokyo Verdy</t>
+  </si>
+  <si>
     <t>Tochigi</t>
   </si>
   <si>
-    <t>Tokyo Verdy</t>
-  </si>
-  <si>
     <t>Racing</t>
   </si>
   <si>
@@ -259,87 +256,90 @@
     <t>Uruguay Montevideo FC</t>
   </si>
   <si>
+    <t>Patronato</t>
+  </si>
+  <si>
+    <t>Deportes Temuco</t>
+  </si>
+  <si>
+    <t>Tuna Luso</t>
+  </si>
+  <si>
+    <t>Defensores de Belgrano</t>
+  </si>
+  <si>
+    <t>Bella Vista</t>
+  </si>
+  <si>
+    <t>Sud América</t>
+  </si>
+  <si>
+    <t>Caxias</t>
+  </si>
+  <si>
+    <t>Uniclinic</t>
+  </si>
+  <si>
+    <t>Concórdia AC</t>
+  </si>
+  <si>
+    <t>Gimnasia Mendoza</t>
+  </si>
+  <si>
+    <t>Peñarol</t>
+  </si>
+  <si>
+    <t>Globo</t>
+  </si>
+  <si>
+    <t>Independiente FSJ</t>
+  </si>
+  <si>
+    <t>Club Atlético Mitre</t>
+  </si>
+  <si>
+    <t>Club Atlético Güemes</t>
+  </si>
+  <si>
+    <t>Sousa</t>
+  </si>
+  <si>
+    <t>Trem</t>
+  </si>
+  <si>
+    <t>La Serena</t>
+  </si>
+  <si>
     <t>Concepción</t>
   </si>
   <si>
-    <t>Patronato</t>
-  </si>
-  <si>
-    <t>Deportes Temuco</t>
-  </si>
-  <si>
-    <t>Independiente FSJ</t>
-  </si>
-  <si>
-    <t>Tuna Luso</t>
-  </si>
-  <si>
-    <t>Uniclinic</t>
-  </si>
-  <si>
-    <t>Defensores de Belgrano</t>
-  </si>
-  <si>
-    <t>Sud América</t>
-  </si>
-  <si>
-    <t>Bella Vista</t>
-  </si>
-  <si>
-    <t>Concórdia AC</t>
-  </si>
-  <si>
-    <t>Gimnasia Mendoza</t>
-  </si>
-  <si>
-    <t>Peñarol</t>
-  </si>
-  <si>
-    <t>Globo</t>
-  </si>
-  <si>
-    <t>Club Atlético Mitre</t>
-  </si>
-  <si>
-    <t>Club Atlético Güemes</t>
+    <t>Real Ariquemes</t>
+  </si>
+  <si>
+    <t>Falcon</t>
   </si>
   <si>
     <t>Manaus</t>
   </si>
   <si>
+    <t>Anápolis</t>
+  </si>
+  <si>
+    <t>CEOV Operário</t>
+  </si>
+  <si>
+    <t>Cascavel CR</t>
+  </si>
+  <si>
     <t>Brasil de Pelotas</t>
   </si>
   <si>
-    <t>Trem</t>
-  </si>
-  <si>
-    <t>La Serena</t>
-  </si>
-  <si>
-    <t>Falcon</t>
-  </si>
-  <si>
     <t>Cruzeiro Arapiraca</t>
   </si>
   <si>
-    <t>Cascavel CR</t>
-  </si>
-  <si>
-    <t>Real Ariquemes</t>
-  </si>
-  <si>
-    <t>CEOV Operário</t>
-  </si>
-  <si>
     <t>Brasiliense</t>
   </si>
   <si>
-    <t>Anápolis</t>
-  </si>
-  <si>
-    <t>Sousa</t>
-  </si>
-  <si>
     <t>Ypiranga Erechim</t>
   </si>
   <si>
@@ -391,12 +391,12 @@
     <t>JEF United</t>
   </si>
   <si>
+    <t>ThespaKusatsu Gunma</t>
+  </si>
+  <si>
     <t>Machida Zelvia</t>
   </si>
   <si>
-    <t>ThespaKusatsu Gunma</t>
-  </si>
-  <si>
     <t>Plaza Colonia</t>
   </si>
   <si>
@@ -406,85 +406,88 @@
     <t>Rampla Juniors</t>
   </si>
   <si>
+    <t>Defensores Unidos</t>
+  </si>
+  <si>
+    <t>Puerto Montt</t>
+  </si>
+  <si>
+    <t>São Raimundo RR</t>
+  </si>
+  <si>
+    <t>San Telmo</t>
+  </si>
+  <si>
+    <t>Tacuarembó</t>
+  </si>
+  <si>
+    <t>Juventud</t>
+  </si>
+  <si>
+    <t>Hercílio Luz</t>
+  </si>
+  <si>
+    <t>Cordino</t>
+  </si>
+  <si>
+    <t>Novo Hamburgo</t>
+  </si>
+  <si>
+    <t>San Martín San Juan</t>
+  </si>
+  <si>
+    <t>River Plate</t>
+  </si>
+  <si>
+    <t>Nacional de Patos</t>
+  </si>
+  <si>
+    <t>Aimoré</t>
+  </si>
+  <si>
+    <t>Villa Dálmine</t>
+  </si>
+  <si>
+    <t>Guillermo Brown</t>
+  </si>
+  <si>
+    <t>Potiguar Mossoró</t>
+  </si>
+  <si>
+    <t>São Francisco</t>
+  </si>
+  <si>
+    <t>Recoleta</t>
+  </si>
+  <si>
     <t>Fernández Vial</t>
   </si>
   <si>
-    <t>Defensores Unidos</t>
-  </si>
-  <si>
-    <t>Puerto Montt</t>
-  </si>
-  <si>
-    <t>Aimoré</t>
-  </si>
-  <si>
-    <t>São Raimundo RR</t>
-  </si>
-  <si>
-    <t>Cordino</t>
-  </si>
-  <si>
-    <t>San Telmo</t>
-  </si>
-  <si>
-    <t>Juventud</t>
-  </si>
-  <si>
-    <t>Tacuarembó</t>
-  </si>
-  <si>
-    <t>Novo Hamburgo</t>
-  </si>
-  <si>
-    <t>San Martín San Juan</t>
-  </si>
-  <si>
-    <t>River Plate</t>
-  </si>
-  <si>
-    <t>Nacional de Patos</t>
-  </si>
-  <si>
-    <t>Villa Dálmine</t>
-  </si>
-  <si>
-    <t>Guillermo Brown</t>
+    <t>Iporá</t>
+  </si>
+  <si>
+    <t>Bahia de Feira</t>
   </si>
   <si>
     <t>EC São José</t>
   </si>
   <si>
+    <t>Ceilândia</t>
+  </si>
+  <si>
+    <t>Interporto</t>
+  </si>
+  <si>
+    <t>XV de Piracicaba</t>
+  </si>
+  <si>
     <t>Camboriú</t>
   </si>
   <si>
-    <t>São Francisco</t>
-  </si>
-  <si>
-    <t>Recoleta</t>
-  </si>
-  <si>
-    <t>Bahia de Feira</t>
-  </si>
-  <si>
     <t>Jacuipense</t>
   </si>
   <si>
-    <t>XV de Piracicaba</t>
-  </si>
-  <si>
-    <t>Iporá</t>
-  </si>
-  <si>
-    <t>Interporto</t>
-  </si>
-  <si>
     <t>União Rondonópolis</t>
-  </si>
-  <si>
-    <t>Ceilândia</t>
-  </si>
-  <si>
-    <t>Potiguar Mossoró</t>
   </si>
   <si>
     <t>Operário PR</t>
@@ -888,7 +891,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI50"/>
+  <dimension ref="A1:AI51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1015,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
         <v>122</v>
       </c>
       <c r="G2">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H2">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I2">
-        <v>4.75</v>
+        <v>4.78</v>
       </c>
       <c r="J2">
         <v>1.01</v>
@@ -1042,10 +1045,10 @@
         <v>3.75</v>
       </c>
       <c r="N2">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="O2">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="P2">
         <v>1.33</v>
@@ -1084,28 +1087,28 @@
         <v>2.75</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AG2">
         <v>2</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -1122,19 +1125,19 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
         <v>123</v>
       </c>
       <c r="G3">
+        <v>3.65</v>
+      </c>
+      <c r="H3">
         <v>3.3</v>
       </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
       <c r="I3">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="J3">
         <v>1.06</v>
@@ -1149,10 +1152,10 @@
         <v>3.3</v>
       </c>
       <c r="N3">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="O3">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="P3">
         <v>1.4</v>
@@ -1229,19 +1232,19 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
         <v>124</v>
       </c>
       <c r="G4">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="J4">
         <v>1.05</v>
@@ -1256,10 +1259,10 @@
         <v>2.81</v>
       </c>
       <c r="N4">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="O4">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="P4">
         <v>1.5</v>
@@ -1336,97 +1339,97 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
         <v>125</v>
       </c>
       <c r="G5">
+        <v>1.65</v>
+      </c>
+      <c r="H5">
+        <v>3.3</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>1.08</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>1.42</v>
+      </c>
+      <c r="M5">
         <v>2.7</v>
       </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>2.45</v>
-      </c>
-      <c r="J5">
-        <v>1.12</v>
-      </c>
-      <c r="K5">
-        <v>5.5</v>
-      </c>
-      <c r="L5">
+      <c r="N5">
+        <v>2.25</v>
+      </c>
+      <c r="O5">
         <v>1.57</v>
       </c>
-      <c r="M5">
-        <v>2.25</v>
-      </c>
-      <c r="N5">
-        <v>2.15</v>
-      </c>
-      <c r="O5">
-        <v>1.61</v>
-      </c>
       <c r="P5">
+        <v>1.5</v>
+      </c>
+      <c r="Q5">
+        <v>2.5</v>
+      </c>
+      <c r="R5">
+        <v>2.2</v>
+      </c>
+      <c r="S5">
         <v>1.62</v>
       </c>
-      <c r="Q5">
-        <v>2.2</v>
-      </c>
-      <c r="R5">
-        <v>2.38</v>
-      </c>
-      <c r="S5">
-        <v>1.53</v>
-      </c>
       <c r="T5">
-        <v>1.72</v>
+        <v>1.11</v>
       </c>
       <c r="U5">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="V5">
-        <v>1.18</v>
+        <v>2.1</v>
       </c>
       <c r="W5">
-        <v>1.89</v>
+        <v>1.5</v>
       </c>
       <c r="X5">
-        <v>2.11</v>
+        <v>1.1</v>
       </c>
       <c r="Y5">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="Z5">
-        <v>1.07</v>
+        <v>1.23</v>
       </c>
       <c r="AA5">
-        <v>2.36</v>
+        <v>2.59</v>
       </c>
       <c r="AB5">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="AC5">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AD5">
-        <v>1.83</v>
+        <v>4</v>
       </c>
       <c r="AE5">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AF5">
+        <v>1.51</v>
+      </c>
+      <c r="AG5">
         <v>1.93</v>
       </c>
-      <c r="AG5">
-        <v>2.9</v>
-      </c>
       <c r="AH5">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1443,97 +1446,97 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
         <v>126</v>
       </c>
       <c r="G6">
-        <v>1.6</v>
+        <v>3.75</v>
       </c>
       <c r="H6">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="I6">
+        <v>1.95</v>
+      </c>
+      <c r="J6">
+        <v>1.12</v>
+      </c>
+      <c r="K6">
+        <v>5.5</v>
+      </c>
+      <c r="L6">
+        <v>1.54</v>
+      </c>
+      <c r="M6">
+        <v>2.35</v>
+      </c>
+      <c r="N6">
+        <v>2.75</v>
+      </c>
+      <c r="O6">
+        <v>1.4</v>
+      </c>
+      <c r="P6">
+        <v>1.62</v>
+      </c>
+      <c r="Q6">
+        <v>2.2</v>
+      </c>
+      <c r="R6">
+        <v>2.38</v>
+      </c>
+      <c r="S6">
+        <v>1.53</v>
+      </c>
+      <c r="T6">
+        <v>1.72</v>
+      </c>
+      <c r="U6">
+        <v>1.35</v>
+      </c>
+      <c r="V6">
+        <v>1.18</v>
+      </c>
+      <c r="W6">
+        <v>1.89</v>
+      </c>
+      <c r="X6">
+        <v>2.11</v>
+      </c>
+      <c r="Y6">
+        <v>1.29</v>
+      </c>
+      <c r="Z6">
+        <v>1.07</v>
+      </c>
+      <c r="AA6">
+        <v>2.36</v>
+      </c>
+      <c r="AB6">
+        <v>2.25</v>
+      </c>
+      <c r="AC6">
         <v>5</v>
       </c>
-      <c r="J6">
-        <v>1.08</v>
-      </c>
-      <c r="K6">
-        <v>7</v>
-      </c>
-      <c r="L6">
-        <v>1.42</v>
-      </c>
-      <c r="M6">
-        <v>2.7</v>
-      </c>
-      <c r="N6">
-        <v>2.05</v>
-      </c>
-      <c r="O6">
-        <v>1.7</v>
-      </c>
-      <c r="P6">
-        <v>1.5</v>
-      </c>
-      <c r="Q6">
-        <v>2.5</v>
-      </c>
-      <c r="R6">
-        <v>2.2</v>
-      </c>
-      <c r="S6">
-        <v>1.62</v>
-      </c>
-      <c r="T6">
-        <v>1.11</v>
-      </c>
-      <c r="U6">
-        <v>1.25</v>
-      </c>
-      <c r="V6">
-        <v>2.1</v>
-      </c>
-      <c r="W6">
-        <v>1.5</v>
-      </c>
-      <c r="X6">
-        <v>1.1</v>
-      </c>
-      <c r="Y6">
-        <v>1.36</v>
-      </c>
-      <c r="Z6">
-        <v>1.23</v>
-      </c>
-      <c r="AA6">
-        <v>2.59</v>
-      </c>
-      <c r="AB6">
-        <v>1.3</v>
-      </c>
-      <c r="AC6">
-        <v>6.5</v>
-      </c>
       <c r="AD6">
-        <v>4</v>
+        <v>1.83</v>
       </c>
       <c r="AE6">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AF6">
-        <v>1.51</v>
+        <v>1.93</v>
       </c>
       <c r="AG6">
-        <v>1.93</v>
+        <v>2.9</v>
       </c>
       <c r="AH6">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="AI6">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1550,19 +1553,19 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s">
         <v>127</v>
       </c>
       <c r="G7">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I7">
-        <v>3.4</v>
+        <v>3.37</v>
       </c>
       <c r="J7">
         <v>1.05</v>
@@ -1577,10 +1580,10 @@
         <v>2.71</v>
       </c>
       <c r="N7">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="O7">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="P7">
         <v>1.44</v>
@@ -1657,19 +1660,19 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
         <v>128</v>
       </c>
       <c r="G8">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I8">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1684,10 +1687,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1696,10 +1699,10 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1764,58 +1767,58 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
         <v>129</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="W9">
         <v>1</v>
@@ -1868,100 +1871,100 @@
         <v>55</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s">
         <v>130</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.72</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="W10">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="X10">
-        <v>1.2</v>
+        <v>0.78</v>
       </c>
       <c r="Y10">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="Z10">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="AA10">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>3.76</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1975,105 +1978,105 @@
         <v>56</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
         <v>131</v>
       </c>
       <c r="G11">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H11">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J11">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K11">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="L11">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="M11">
-        <v>2.64</v>
+        <v>3</v>
       </c>
       <c r="N11">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O11">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="P11">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="Q11">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="R11">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="S11">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="T11">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="U11">
         <v>1.29</v>
       </c>
       <c r="V11">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W11">
-        <v>1.33</v>
+        <v>2.43</v>
       </c>
       <c r="X11">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="Y11">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="Z11">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="AA11">
-        <v>2.77</v>
+        <v>2.95</v>
       </c>
       <c r="AB11">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>3.76</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="AH11">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>3.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:35">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2">
         <v>45095</v>
@@ -2082,76 +2085,76 @@
         <v>57</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
         <v>132</v>
       </c>
       <c r="G12">
-        <v>1.64</v>
+        <v>1.99</v>
       </c>
       <c r="H12">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="I12">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="J12">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="K12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L12">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N12">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="O12">
-        <v>1.61</v>
+        <v>1.77</v>
       </c>
       <c r="P12">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="Q12">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="R12">
-        <v>2.04</v>
+        <v>1.78</v>
       </c>
       <c r="S12">
-        <v>1.74</v>
+        <v>1.99</v>
       </c>
       <c r="T12">
-        <v>1.12</v>
+        <v>1.26</v>
       </c>
       <c r="U12">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="V12">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="W12">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="X12">
-        <v>0.67</v>
+        <v>0.25</v>
       </c>
       <c r="Y12">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Z12">
-        <v>1.15</v>
+        <v>1.56</v>
       </c>
       <c r="AA12">
-        <v>2.95</v>
+        <v>3.37</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -2180,106 +2183,106 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2">
         <v>45095</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
         <v>133</v>
       </c>
       <c r="G13">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I13">
-        <v>1.5</v>
+        <v>4.68</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="W13">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="X13">
-        <v>0.33</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y13">
-        <v>1.49</v>
+        <v>1.31</v>
       </c>
       <c r="Z13">
-        <v>1.49</v>
+        <v>1.14</v>
       </c>
       <c r="AA13">
-        <v>2.98</v>
+        <v>2.45</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>3.62</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AI13">
         <v>0</v>
@@ -2287,31 +2290,31 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2">
         <v>45095</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
         <v>134</v>
       </c>
       <c r="G14">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I14">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2326,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2353,19 +2356,19 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>2.33</v>
+        <v>0.67</v>
       </c>
       <c r="X14">
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="Y14">
-        <v>1.81</v>
+        <v>1.13</v>
       </c>
       <c r="Z14">
-        <v>1.56</v>
+        <v>1.26</v>
       </c>
       <c r="AA14">
-        <v>3.37</v>
+        <v>2.39</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -2394,85 +2397,85 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2">
         <v>45095</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
         <v>135</v>
       </c>
       <c r="G15">
-        <v>1.5</v>
+        <v>2.62</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="I15">
-        <v>1.5</v>
+        <v>2.48</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="W15">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>0.5</v>
+        <v>1.17</v>
       </c>
       <c r="Y15">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="Z15">
-        <v>1.13</v>
+        <v>1.58</v>
       </c>
       <c r="AA15">
-        <v>2.8</v>
+        <v>2.83</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -2501,106 +2504,106 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2">
         <v>45095</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
         <v>136</v>
       </c>
       <c r="G16">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="H16">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="J16">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>7.25</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="X16">
-        <v>0.5600000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="Y16">
-        <v>1.31</v>
+        <v>2.09</v>
       </c>
       <c r="Z16">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AA16">
-        <v>2.45</v>
+        <v>3.29</v>
       </c>
       <c r="AB16">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>3.62</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AH16">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="AI16">
         <v>0</v>
@@ -2608,85 +2611,85 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2">
         <v>45095</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17" t="s">
         <v>137</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="X17">
-        <v>1.17</v>
+        <v>0.5</v>
       </c>
       <c r="Y17">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="Z17">
-        <v>1.58</v>
+        <v>1.13</v>
       </c>
       <c r="AA17">
-        <v>2.83</v>
+        <v>2.8</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -2715,31 +2718,31 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2">
         <v>45095</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s">
         <v>138</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2754,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -2781,19 +2784,19 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>0.67</v>
+        <v>1.75</v>
       </c>
       <c r="X18">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="Y18">
-        <v>1.13</v>
+        <v>1.61</v>
       </c>
       <c r="Z18">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="AA18">
-        <v>2.39</v>
+        <v>2.79</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -2822,7 +2825,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2">
         <v>45095</v>
@@ -2831,97 +2834,97 @@
         <v>58</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F19" t="s">
         <v>139</v>
       </c>
       <c r="G19">
-        <v>1.5</v>
+        <v>2.24</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I19">
-        <v>1.5</v>
+        <v>3.02</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="W19">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="X19">
-        <v>0.33</v>
+        <v>1.33</v>
       </c>
       <c r="Y19">
-        <v>1.61</v>
+        <v>1.41</v>
       </c>
       <c r="Z19">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AA19">
-        <v>2.79</v>
+        <v>2.66</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AI19">
         <v>0</v>
@@ -2929,7 +2932,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2">
         <v>45095</v>
@@ -2938,207 +2941,207 @@
         <v>59</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s">
         <v>140</v>
       </c>
       <c r="G20">
-        <v>2.55</v>
+        <v>1.49</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="I20">
-        <v>2.63</v>
+        <v>5.1</v>
       </c>
       <c r="J20">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="K20">
-        <v>6.5</v>
+        <v>11.5</v>
       </c>
       <c r="L20">
-        <v>1.52</v>
+        <v>1.29</v>
       </c>
       <c r="M20">
-        <v>2.43</v>
+        <v>3.28</v>
       </c>
       <c r="N20">
-        <v>2.55</v>
+        <v>1.9</v>
       </c>
       <c r="O20">
-        <v>1.47</v>
+        <v>1.9</v>
       </c>
       <c r="P20">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="Q20">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="R20">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="T20">
-        <v>1.35</v>
+        <v>1.13</v>
       </c>
       <c r="U20">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="V20">
-        <v>1.57</v>
+        <v>2.3</v>
       </c>
       <c r="W20">
-        <v>1.89</v>
+        <v>2.56</v>
       </c>
       <c r="X20">
-        <v>1.33</v>
+        <v>0.63</v>
       </c>
       <c r="Y20">
-        <v>1.41</v>
+        <v>1.05</v>
       </c>
       <c r="Z20">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="AA20">
-        <v>2.66</v>
+        <v>1.75</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>4.32</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2">
         <v>45095</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s">
         <v>141</v>
       </c>
       <c r="G21">
-        <v>1.5</v>
+        <v>5.2</v>
       </c>
       <c r="H21">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I21">
-        <v>5.5</v>
+        <v>1.71</v>
       </c>
       <c r="J21">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K21">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="L21">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M21">
-        <v>3.28</v>
+        <v>3.2</v>
       </c>
       <c r="N21">
+        <v>1.95</v>
+      </c>
+      <c r="O21">
+        <v>1.83</v>
+      </c>
+      <c r="P21">
+        <v>1.38</v>
+      </c>
+      <c r="Q21">
+        <v>2.8</v>
+      </c>
+      <c r="R21">
+        <v>1.86</v>
+      </c>
+      <c r="S21">
         <v>1.9</v>
       </c>
-      <c r="O21">
-        <v>1.9</v>
-      </c>
-      <c r="P21">
+      <c r="T21">
+        <v>2.12</v>
+      </c>
+      <c r="U21">
+        <v>1.24</v>
+      </c>
+      <c r="V21">
+        <v>1.15</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
         <v>1.4</v>
       </c>
-      <c r="Q21">
-        <v>2.75</v>
-      </c>
-      <c r="R21">
-        <v>1.95</v>
-      </c>
-      <c r="S21">
-        <v>1.75</v>
-      </c>
-      <c r="T21">
-        <v>1.13</v>
-      </c>
-      <c r="U21">
-        <v>1.2</v>
-      </c>
-      <c r="V21">
-        <v>2.3</v>
-      </c>
-      <c r="W21">
-        <v>2.56</v>
-      </c>
-      <c r="X21">
-        <v>0.63</v>
-      </c>
-      <c r="Y21">
-        <v>1.05</v>
-      </c>
       <c r="Z21">
-        <v>0.7</v>
+        <v>0.89</v>
       </c>
       <c r="AA21">
-        <v>1.75</v>
+        <v>2.29</v>
       </c>
       <c r="AB21">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="AD21">
-        <v>4.32</v>
+        <v>0</v>
       </c>
       <c r="AE21">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AF21">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AG21">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AH21">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="AI21">
-        <v>3.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -3149,13 +3152,13 @@
         <v>45095</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -3209,19 +3212,19 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="Y22">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="Z22">
-        <v>0.89</v>
+        <v>1.49</v>
       </c>
       <c r="AA22">
-        <v>2.29</v>
+        <v>2.98</v>
       </c>
       <c r="AB22">
         <v>0</v>
@@ -3250,31 +3253,31 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2">
         <v>45095</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23">
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F23" t="s">
         <v>143</v>
       </c>
       <c r="G23">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="H23">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="I23">
-        <v>4.75</v>
+        <v>6.29</v>
       </c>
       <c r="J23">
         <v>1.08</v>
@@ -3289,10 +3292,10 @@
         <v>2.6</v>
       </c>
       <c r="N23">
-        <v>2.3</v>
+        <v>2.41</v>
       </c>
       <c r="O23">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="P23">
         <v>1.51</v>
@@ -3357,31 +3360,31 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2">
         <v>45095</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24">
         <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F24" t="s">
         <v>144</v>
       </c>
       <c r="G24">
-        <v>2.45</v>
+        <v>2.14</v>
       </c>
       <c r="H24">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="J24">
         <v>1.13</v>
@@ -3393,13 +3396,13 @@
         <v>1.57</v>
       </c>
       <c r="M24">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N24">
-        <v>2.55</v>
+        <v>2.81</v>
       </c>
       <c r="O24">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="P24">
         <v>1.6</v>
@@ -3464,85 +3467,85 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2">
         <v>45095</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F25" t="s">
         <v>145</v>
       </c>
       <c r="G25">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="H25">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="J25">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="K25">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="L25">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="M25">
-        <v>2.62</v>
+        <v>2.9</v>
       </c>
       <c r="N25">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="O25">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="P25">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q25">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="R25">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="S25">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T25">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="U25">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="V25">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W25">
         <v>3</v>
       </c>
       <c r="X25">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="Y25">
-        <v>1.58</v>
+        <v>1.77</v>
       </c>
       <c r="Z25">
-        <v>1.05</v>
+        <v>1.17</v>
       </c>
       <c r="AA25">
-        <v>2.63</v>
+        <v>2.94</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -3577,79 +3580,79 @@
         <v>45095</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26">
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F26" t="s">
         <v>146</v>
       </c>
       <c r="G26">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I26">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="W26">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="X26">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <v>1.67</v>
+        <v>1.12</v>
       </c>
       <c r="Z26">
-        <v>1.59</v>
+        <v>0.79</v>
       </c>
       <c r="AA26">
-        <v>3.26</v>
+        <v>1.91</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -3678,85 +3681,85 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2">
         <v>45095</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F27" t="s">
         <v>147</v>
       </c>
       <c r="G27">
-        <v>1.5</v>
+        <v>1.92</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I27">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>2.14</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="Y27">
-        <v>1.12</v>
+        <v>1.74</v>
       </c>
       <c r="Z27">
-        <v>0.79</v>
+        <v>1.2</v>
       </c>
       <c r="AA27">
-        <v>1.91</v>
+        <v>2.94</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -3791,79 +3794,79 @@
         <v>45095</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
         <v>148</v>
       </c>
       <c r="G28">
-        <v>1.92</v>
+        <v>2.62</v>
       </c>
       <c r="H28">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>3.4</v>
+        <v>2.38</v>
       </c>
       <c r="J28">
         <v>1.06</v>
       </c>
       <c r="K28">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="L28">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M28">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="O28">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="P28">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>2.69</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="S28">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="T28">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="U28">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="V28">
-        <v>2.05</v>
+        <v>1.39</v>
       </c>
       <c r="W28">
-        <v>2.14</v>
+        <v>0.5</v>
       </c>
       <c r="X28">
-        <v>0.86</v>
+        <v>1.2</v>
       </c>
       <c r="Y28">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="Z28">
         <v>1.2</v>
       </c>
       <c r="AA28">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -3898,25 +3901,25 @@
         <v>45095</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29">
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F29" t="s">
         <v>149</v>
       </c>
       <c r="G29">
-        <v>1.5</v>
+        <v>7.8</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="I29">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3931,10 +3934,10 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -3943,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -3958,19 +3961,19 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>0.67</v>
+        <v>0.25</v>
       </c>
       <c r="Y29">
-        <v>1.95</v>
+        <v>0.79</v>
       </c>
       <c r="Z29">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="AA29">
-        <v>3.31</v>
+        <v>2.39</v>
       </c>
       <c r="AB29">
         <v>0</v>
@@ -4005,44 +4008,44 @@
         <v>45095</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30">
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F30" t="s">
         <v>150</v>
       </c>
       <c r="G30">
+        <v>3.25</v>
+      </c>
+      <c r="H30">
+        <v>3.05</v>
+      </c>
+      <c r="I30">
+        <v>2.27</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>2.26</v>
+      </c>
+      <c r="O30">
         <v>1.5</v>
       </c>
-      <c r="H30">
-        <v>3</v>
-      </c>
-      <c r="I30">
-        <v>1.5</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
       <c r="P30">
         <v>0</v>
       </c>
@@ -4065,19 +4068,19 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="X30">
-        <v>1.67</v>
+        <v>0.67</v>
       </c>
       <c r="Y30">
-        <v>1.2</v>
+        <v>1.95</v>
       </c>
       <c r="Z30">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AA30">
-        <v>2.5</v>
+        <v>3.31</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -4106,85 +4109,85 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2">
         <v>45095</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31">
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F31" t="s">
         <v>151</v>
       </c>
       <c r="G31">
-        <v>1.5</v>
+        <v>2.07</v>
       </c>
       <c r="H31">
         <v>3</v>
       </c>
       <c r="I31">
+        <v>3.47</v>
+      </c>
+      <c r="J31">
+        <v>1.1</v>
+      </c>
+      <c r="K31">
+        <v>6.5</v>
+      </c>
+      <c r="L31">
+        <v>1.44</v>
+      </c>
+      <c r="M31">
+        <v>2.62</v>
+      </c>
+      <c r="N31">
+        <v>2.44</v>
+      </c>
+      <c r="O31">
+        <v>1.49</v>
+      </c>
+      <c r="P31">
         <v>1.5</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
       <c r="Q31">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="W31">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="X31">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="Y31">
-        <v>2.26</v>
+        <v>1.58</v>
       </c>
       <c r="Z31">
-        <v>1.21</v>
+        <v>1.05</v>
       </c>
       <c r="AA31">
-        <v>3.47</v>
+        <v>2.63</v>
       </c>
       <c r="AB31">
         <v>0</v>
@@ -4219,79 +4222,79 @@
         <v>45095</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32">
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F32" t="s">
         <v>152</v>
       </c>
       <c r="G32">
-        <v>1.5</v>
+        <v>1.79</v>
       </c>
       <c r="H32">
+        <v>3.2</v>
+      </c>
+      <c r="I32">
+        <v>4.8</v>
+      </c>
+      <c r="J32">
+        <v>1.05</v>
+      </c>
+      <c r="K32">
+        <v>8</v>
+      </c>
+      <c r="L32">
+        <v>1.35</v>
+      </c>
+      <c r="M32">
         <v>3</v>
       </c>
-      <c r="I32">
-        <v>1.5</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
       <c r="N32">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X32">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Y32">
-        <v>0.79</v>
+        <v>1.77</v>
       </c>
       <c r="Z32">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="AA32">
-        <v>2.39</v>
+        <v>3.12</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -4326,25 +4329,25 @@
         <v>45095</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33">
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F33" t="s">
         <v>153</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -4371,19 +4374,19 @@
         <v>0</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="W33">
         <v>1.25</v>
@@ -4433,79 +4436,79 @@
         <v>45095</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34">
         <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F34" t="s">
         <v>154</v>
       </c>
       <c r="G34">
-        <v>1.5</v>
+        <v>2.85</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I34">
-        <v>1.5</v>
+        <v>2.46</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X34">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="Y34">
-        <v>1.55</v>
+        <v>2.26</v>
       </c>
       <c r="Z34">
-        <v>1.86</v>
+        <v>1.21</v>
       </c>
       <c r="AA34">
-        <v>3.41</v>
+        <v>3.47</v>
       </c>
       <c r="AB34">
         <v>0</v>
@@ -4540,79 +4543,79 @@
         <v>45095</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D35">
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F35" t="s">
         <v>155</v>
       </c>
       <c r="G35">
-        <v>1.5</v>
+        <v>2.07</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I35">
-        <v>1.5</v>
+        <v>3.55</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="W35">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="X35">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y35">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="Z35">
-        <v>1.35</v>
+        <v>1.59</v>
       </c>
       <c r="AA35">
-        <v>3.12</v>
+        <v>3.26</v>
       </c>
       <c r="AB35">
         <v>0</v>
@@ -4647,79 +4650,79 @@
         <v>45095</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D36">
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F36" t="s">
         <v>156</v>
       </c>
       <c r="G36">
-        <v>1.5</v>
+        <v>2.65</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I36">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W36">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="X36">
-        <v>0.25</v>
+        <v>1.67</v>
       </c>
       <c r="Y36">
-        <v>1.77</v>
+        <v>1.2</v>
       </c>
       <c r="Z36">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="AA36">
-        <v>2.94</v>
+        <v>2.5</v>
       </c>
       <c r="AB36">
         <v>0</v>
@@ -4748,85 +4751,85 @@
     </row>
     <row r="37" spans="1:35">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2">
         <v>45095</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D37">
         <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F37" t="s">
         <v>157</v>
       </c>
       <c r="G37">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H37">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I37">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="N37">
-        <v>2.26</v>
+        <v>2.39</v>
       </c>
       <c r="O37">
+        <v>1.45</v>
+      </c>
+      <c r="P37">
+        <v>1.55</v>
+      </c>
+      <c r="Q37">
+        <v>2.14</v>
+      </c>
+      <c r="R37">
+        <v>2.05</v>
+      </c>
+      <c r="S37">
+        <v>1.73</v>
+      </c>
+      <c r="T37">
+        <v>1.29</v>
+      </c>
+      <c r="U37">
+        <v>1.36</v>
+      </c>
+      <c r="V37">
+        <v>1.59</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
         <v>1.5</v>
       </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>2</v>
-      </c>
-      <c r="X37">
-        <v>0.33</v>
-      </c>
       <c r="Y37">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="Z37">
-        <v>1.37</v>
+        <v>1.86</v>
       </c>
       <c r="AA37">
-        <v>3.05</v>
+        <v>3.41</v>
       </c>
       <c r="AB37">
         <v>0</v>
@@ -4855,31 +4858,31 @@
     </row>
     <row r="38" spans="1:35">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2">
         <v>45095</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D38">
         <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F38" t="s">
         <v>158</v>
       </c>
       <c r="G38">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I38">
-        <v>1.5</v>
+        <v>3.64</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -4894,10 +4897,10 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -4921,19 +4924,19 @@
         <v>0</v>
       </c>
       <c r="W38">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="X38">
-        <v>1.75</v>
+        <v>0.33</v>
       </c>
       <c r="Y38">
-        <v>2.07</v>
+        <v>1.68</v>
       </c>
       <c r="Z38">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AA38">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="AB38">
         <v>0</v>
@@ -4962,31 +4965,31 @@
     </row>
     <row r="39" spans="1:35">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2">
         <v>45095</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F39" t="s">
         <v>159</v>
       </c>
       <c r="G39">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="H39">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I39">
-        <v>4.75</v>
+        <v>7.8</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -5001,22 +5004,22 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1.83</v>
+        <v>2.11</v>
       </c>
       <c r="O39">
-        <v>1.87</v>
+        <v>1.71</v>
       </c>
       <c r="P39">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="S39">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="T39">
         <v>0</v>
@@ -5028,19 +5031,19 @@
         <v>0</v>
       </c>
       <c r="W39">
-        <v>1.6</v>
+        <v>2.33</v>
       </c>
       <c r="X39">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="Y39">
-        <v>1.6</v>
+        <v>2.07</v>
       </c>
       <c r="Z39">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AA39">
-        <v>2.84</v>
+        <v>3.4</v>
       </c>
       <c r="AB39">
         <v>0</v>
@@ -5069,620 +5072,620 @@
     </row>
     <row r="40" spans="1:35">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2">
         <v>45095</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D40">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F40" t="s">
         <v>160</v>
       </c>
       <c r="G40">
+        <v>1.58</v>
+      </c>
+      <c r="H40">
+        <v>3.5</v>
+      </c>
+      <c r="I40">
+        <v>4.85</v>
+      </c>
+      <c r="J40">
+        <v>1.01</v>
+      </c>
+      <c r="K40">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="L40">
+        <v>1.26</v>
+      </c>
+      <c r="M40">
+        <v>3.34</v>
+      </c>
+      <c r="N40">
+        <v>1.83</v>
+      </c>
+      <c r="O40">
+        <v>1.87</v>
+      </c>
+      <c r="P40">
+        <v>1.4</v>
+      </c>
+      <c r="Q40">
+        <v>2.75</v>
+      </c>
+      <c r="R40">
         <v>2</v>
       </c>
-      <c r="H40">
-        <v>3</v>
-      </c>
-      <c r="I40">
-        <v>3.6</v>
-      </c>
-      <c r="J40">
-        <v>1.1</v>
-      </c>
-      <c r="K40">
-        <v>6.25</v>
-      </c>
-      <c r="L40">
-        <v>1.49</v>
-      </c>
-      <c r="M40">
-        <v>2.45</v>
-      </c>
-      <c r="N40">
-        <v>2.35</v>
-      </c>
-      <c r="O40">
-        <v>1.5</v>
-      </c>
-      <c r="P40">
-        <v>1.53</v>
-      </c>
-      <c r="Q40">
-        <v>2.41</v>
-      </c>
-      <c r="R40">
-        <v>2.09</v>
-      </c>
       <c r="S40">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="T40">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="U40">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="V40">
-        <v>1.69</v>
+        <v>2.15</v>
       </c>
       <c r="W40">
-        <v>1.13</v>
+        <v>1.6</v>
       </c>
       <c r="X40">
-        <v>0.88</v>
+        <v>2</v>
       </c>
       <c r="Y40">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="Z40">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AA40">
-        <v>2.56</v>
+        <v>2.84</v>
       </c>
       <c r="AB40">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="AD40">
-        <v>2.49</v>
+        <v>0</v>
       </c>
       <c r="AE40">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AF40">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AG40">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AH40">
-        <v>2.49</v>
+        <v>0</v>
       </c>
       <c r="AI40">
-        <v>3.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:35">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2">
         <v>45095</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F41" t="s">
         <v>161</v>
       </c>
       <c r="G41">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="H41">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>2.5</v>
+        <v>3.26</v>
       </c>
       <c r="J41">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="K41">
-        <v>9</v>
+        <v>6.25</v>
       </c>
       <c r="L41">
-        <v>1.28</v>
+        <v>1.49</v>
       </c>
       <c r="M41">
-        <v>3.65</v>
+        <v>2.45</v>
       </c>
       <c r="N41">
-        <v>1.79</v>
+        <v>2.44</v>
       </c>
       <c r="O41">
-        <v>1.88</v>
+        <v>1.49</v>
       </c>
       <c r="P41">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="Q41">
-        <v>3</v>
+        <v>2.41</v>
       </c>
       <c r="R41">
-        <v>1.62</v>
+        <v>2.09</v>
       </c>
       <c r="S41">
-        <v>2.2</v>
+        <v>1.71</v>
       </c>
       <c r="T41">
-        <v>1.49</v>
+        <v>1.3</v>
       </c>
       <c r="U41">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="V41">
-        <v>1.46</v>
+        <v>1.69</v>
       </c>
       <c r="W41">
-        <v>2.14</v>
+        <v>1.13</v>
       </c>
       <c r="X41">
-        <v>0.71</v>
+        <v>0.88</v>
       </c>
       <c r="Y41">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="Z41">
+        <v>1.23</v>
+      </c>
+      <c r="AA41">
+        <v>2.56</v>
+      </c>
+      <c r="AB41">
+        <v>1.73</v>
+      </c>
+      <c r="AC41">
+        <v>8.9</v>
+      </c>
+      <c r="AD41">
+        <v>2.49</v>
+      </c>
+      <c r="AE41">
         <v>1.29</v>
       </c>
-      <c r="AA41">
-        <v>2.79</v>
-      </c>
-      <c r="AB41">
-        <v>1.94</v>
-      </c>
-      <c r="AC41">
-        <v>8.6</v>
-      </c>
-      <c r="AD41">
-        <v>2.11</v>
-      </c>
-      <c r="AE41">
-        <v>1.28</v>
-      </c>
       <c r="AF41">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="AG41">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="AH41">
-        <v>2.45</v>
+        <v>2.49</v>
       </c>
       <c r="AI41">
-        <v>3.34</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="42" spans="1:35">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2">
         <v>45095</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F42" t="s">
         <v>162</v>
       </c>
       <c r="G42">
-        <v>1.68</v>
+        <v>2.5</v>
       </c>
       <c r="H42">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="I42">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="J42">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="K42">
-        <v>7.75</v>
+        <v>9</v>
       </c>
       <c r="L42">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="M42">
-        <v>2.8</v>
+        <v>3.65</v>
       </c>
       <c r="N42">
-        <v>2.18</v>
+        <v>1.79</v>
       </c>
       <c r="O42">
+        <v>1.88</v>
+      </c>
+      <c r="P42">
+        <v>1.36</v>
+      </c>
+      <c r="Q42">
+        <v>3</v>
+      </c>
+      <c r="R42">
         <v>1.62</v>
       </c>
-      <c r="P42">
-        <v>1.44</v>
-      </c>
-      <c r="Q42">
-        <v>2.55</v>
-      </c>
-      <c r="R42">
-        <v>2.05</v>
-      </c>
       <c r="S42">
-        <v>1.66</v>
+        <v>2.2</v>
       </c>
       <c r="T42">
-        <v>1.18</v>
+        <v>1.49</v>
       </c>
       <c r="U42">
+        <v>1.31</v>
+      </c>
+      <c r="V42">
+        <v>1.46</v>
+      </c>
+      <c r="W42">
+        <v>2.14</v>
+      </c>
+      <c r="X42">
+        <v>0.71</v>
+      </c>
+      <c r="Y42">
+        <v>1.5</v>
+      </c>
+      <c r="Z42">
+        <v>1.29</v>
+      </c>
+      <c r="AA42">
+        <v>2.79</v>
+      </c>
+      <c r="AB42">
+        <v>1.94</v>
+      </c>
+      <c r="AC42">
+        <v>8.6</v>
+      </c>
+      <c r="AD42">
+        <v>2.11</v>
+      </c>
+      <c r="AE42">
         <v>1.28</v>
       </c>
-      <c r="V42">
-        <v>2.05</v>
-      </c>
-      <c r="W42">
-        <v>3</v>
-      </c>
-      <c r="X42">
-        <v>2</v>
-      </c>
-      <c r="Y42">
-        <v>1.66</v>
-      </c>
-      <c r="Z42">
-        <v>1.83</v>
-      </c>
-      <c r="AA42">
-        <v>3.49</v>
-      </c>
-      <c r="AB42">
-        <v>0</v>
-      </c>
-      <c r="AC42">
-        <v>0</v>
-      </c>
-      <c r="AD42">
-        <v>0</v>
-      </c>
-      <c r="AE42">
-        <v>0</v>
-      </c>
       <c r="AF42">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AG42">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH42">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AI42">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="43" spans="1:35">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B43" s="2">
         <v>45095</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D43">
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F43" t="s">
         <v>163</v>
       </c>
       <c r="G43">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="H43">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I43">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="J43">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K43">
-        <v>10.25</v>
+        <v>7.75</v>
       </c>
       <c r="L43">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="M43">
+        <v>2.8</v>
+      </c>
+      <c r="N43">
+        <v>2.14</v>
+      </c>
+      <c r="O43">
+        <v>1.63</v>
+      </c>
+      <c r="P43">
+        <v>1.44</v>
+      </c>
+      <c r="Q43">
+        <v>2.55</v>
+      </c>
+      <c r="R43">
+        <v>2.05</v>
+      </c>
+      <c r="S43">
+        <v>1.66</v>
+      </c>
+      <c r="T43">
+        <v>1.18</v>
+      </c>
+      <c r="U43">
+        <v>1.28</v>
+      </c>
+      <c r="V43">
+        <v>2.05</v>
+      </c>
+      <c r="W43">
+        <v>3</v>
+      </c>
+      <c r="X43">
+        <v>2</v>
+      </c>
+      <c r="Y43">
+        <v>1.66</v>
+      </c>
+      <c r="Z43">
+        <v>1.83</v>
+      </c>
+      <c r="AA43">
+        <v>3.49</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1.4</v>
+      </c>
+      <c r="AF43">
+        <v>1.74</v>
+      </c>
+      <c r="AG43">
+        <v>2.28</v>
+      </c>
+      <c r="AH43">
         <v>3.1</v>
       </c>
-      <c r="N43">
-        <v>2.1</v>
-      </c>
-      <c r="O43">
-        <v>1.69</v>
-      </c>
-      <c r="P43">
-        <v>1.43</v>
-      </c>
-      <c r="Q43">
-        <v>2.65</v>
-      </c>
-      <c r="R43">
-        <v>1.88</v>
-      </c>
-      <c r="S43">
-        <v>1.88</v>
-      </c>
-      <c r="T43">
-        <v>1.22</v>
-      </c>
-      <c r="U43">
-        <v>1.25</v>
-      </c>
-      <c r="V43">
-        <v>1.88</v>
-      </c>
-      <c r="W43">
-        <v>1.38</v>
-      </c>
-      <c r="X43">
-        <v>2.25</v>
-      </c>
-      <c r="Y43">
-        <v>2.03</v>
-      </c>
-      <c r="Z43">
-        <v>1.34</v>
-      </c>
-      <c r="AA43">
-        <v>3.37</v>
-      </c>
-      <c r="AB43">
-        <v>1.45</v>
-      </c>
-      <c r="AC43">
-        <v>9</v>
-      </c>
-      <c r="AD43">
-        <v>3.4</v>
-      </c>
-      <c r="AE43">
-        <v>1.24</v>
-      </c>
-      <c r="AF43">
-        <v>1.41</v>
-      </c>
-      <c r="AG43">
-        <v>1.73</v>
-      </c>
-      <c r="AH43">
-        <v>2.22</v>
-      </c>
       <c r="AI43">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="44" spans="1:35">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B44" s="2">
         <v>45095</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D44">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F44" t="s">
         <v>164</v>
       </c>
       <c r="G44">
-        <v>1.96</v>
+        <v>1.73</v>
       </c>
       <c r="H44">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I44">
-        <v>3.15</v>
+        <v>4.15</v>
       </c>
       <c r="J44">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K44">
-        <v>8</v>
+        <v>10.25</v>
       </c>
       <c r="L44">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M44">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N44">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
       <c r="O44">
-        <v>1.96</v>
+        <v>1.68</v>
       </c>
       <c r="P44">
+        <v>1.43</v>
+      </c>
+      <c r="Q44">
+        <v>2.65</v>
+      </c>
+      <c r="R44">
+        <v>1.88</v>
+      </c>
+      <c r="S44">
+        <v>1.88</v>
+      </c>
+      <c r="T44">
+        <v>1.22</v>
+      </c>
+      <c r="U44">
+        <v>1.25</v>
+      </c>
+      <c r="V44">
+        <v>1.88</v>
+      </c>
+      <c r="W44">
         <v>1.38</v>
       </c>
-      <c r="Q44">
-        <v>2.81</v>
-      </c>
-      <c r="R44">
-        <v>1.75</v>
-      </c>
-      <c r="S44">
+      <c r="X44">
+        <v>2.25</v>
+      </c>
+      <c r="Y44">
         <v>2.03</v>
       </c>
-      <c r="T44">
-        <v>1.33</v>
-      </c>
-      <c r="U44">
-        <v>1.3</v>
-      </c>
-      <c r="V44">
-        <v>1.65</v>
-      </c>
-      <c r="W44">
-        <v>2.5</v>
-      </c>
-      <c r="X44">
-        <v>1.25</v>
-      </c>
-      <c r="Y44">
-        <v>1.83</v>
-      </c>
       <c r="Z44">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="AA44">
-        <v>3.39</v>
+        <v>3.37</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AC44">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD44">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AE44">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF44">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AG44">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AH44">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AI44">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="45" spans="1:35">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2">
         <v>45095</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D45">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F45" t="s">
         <v>165</v>
       </c>
       <c r="G45">
-        <v>1.62</v>
+        <v>1.96</v>
       </c>
       <c r="H45">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I45">
-        <v>5.5</v>
+        <v>3.15</v>
       </c>
       <c r="J45">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="K45">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="L45">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="M45">
-        <v>2.35</v>
+        <v>3.25</v>
       </c>
       <c r="N45">
-        <v>2.53</v>
+        <v>1.8</v>
       </c>
       <c r="O45">
-        <v>1.42</v>
+        <v>1.96</v>
       </c>
       <c r="P45">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="Q45">
-        <v>2.38</v>
+        <v>2.81</v>
       </c>
       <c r="R45">
+        <v>1.75</v>
+      </c>
+      <c r="S45">
+        <v>2.03</v>
+      </c>
+      <c r="T45">
+        <v>1.33</v>
+      </c>
+      <c r="U45">
+        <v>1.3</v>
+      </c>
+      <c r="V45">
+        <v>1.65</v>
+      </c>
+      <c r="W45">
         <v>2.5</v>
       </c>
-      <c r="S45">
-        <v>1.5</v>
-      </c>
-      <c r="T45">
-        <v>1.11</v>
-      </c>
-      <c r="U45">
-        <v>1.33</v>
-      </c>
-      <c r="V45">
-        <v>2.1</v>
-      </c>
-      <c r="W45">
-        <v>2</v>
-      </c>
       <c r="X45">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="Y45">
-        <v>1.15</v>
+        <v>1.83</v>
       </c>
       <c r="Z45">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="AA45">
-        <v>2.68</v>
+        <v>3.39</v>
       </c>
       <c r="AB45">
         <v>0</v>
@@ -5711,31 +5714,31 @@
     </row>
     <row r="46" spans="1:35">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B46" s="2">
         <v>45095</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D46">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F46" t="s">
         <v>166</v>
       </c>
       <c r="G46">
+        <v>1.75</v>
+      </c>
+      <c r="H46">
         <v>3.1</v>
       </c>
-      <c r="H46">
-        <v>2.63</v>
-      </c>
       <c r="I46">
-        <v>2.4</v>
+        <v>4.53</v>
       </c>
       <c r="J46">
         <v>1.12</v>
@@ -5750,67 +5753,67 @@
         <v>2.3</v>
       </c>
       <c r="N46">
-        <v>2.55</v>
+        <v>2.69</v>
       </c>
       <c r="O46">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="P46">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q46">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="R46">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="S46">
-        <v>1.68</v>
+        <v>1.5</v>
       </c>
       <c r="T46">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="U46">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="V46">
-        <v>1.33</v>
+        <v>2.1</v>
       </c>
       <c r="W46">
-        <v>1.22</v>
+        <v>2</v>
       </c>
       <c r="X46">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="Y46">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="Z46">
-        <v>1.26</v>
+        <v>1.53</v>
       </c>
       <c r="AA46">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="AB46">
-        <v>2.51</v>
+        <v>0</v>
       </c>
       <c r="AC46">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AD46">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AE46">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AF46">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="AG46">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="AH46">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="AI46">
         <v>0</v>
@@ -5818,245 +5821,245 @@
     </row>
     <row r="47" spans="1:35">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B47" s="2">
         <v>45095</v>
       </c>
       <c r="C47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D47">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F47" t="s">
         <v>167</v>
       </c>
       <c r="G47">
-        <v>1.9</v>
+        <v>3.29</v>
       </c>
       <c r="H47">
-        <v>3.3</v>
+        <v>2.85</v>
       </c>
       <c r="I47">
-        <v>3.05</v>
+        <v>2.22</v>
       </c>
       <c r="J47">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="K47">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="L47">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="M47">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="N47">
-        <v>1.7</v>
+        <v>2.73</v>
       </c>
       <c r="O47">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="P47">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="Q47">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="R47">
+        <v>2.05</v>
+      </c>
+      <c r="S47">
+        <v>1.68</v>
+      </c>
+      <c r="T47">
+        <v>1.47</v>
+      </c>
+      <c r="U47">
+        <v>1.43</v>
+      </c>
+      <c r="V47">
+        <v>1.33</v>
+      </c>
+      <c r="W47">
+        <v>1.22</v>
+      </c>
+      <c r="X47">
+        <v>0.78</v>
+      </c>
+      <c r="Y47">
+        <v>1.32</v>
+      </c>
+      <c r="Z47">
+        <v>1.26</v>
+      </c>
+      <c r="AA47">
+        <v>2.58</v>
+      </c>
+      <c r="AB47">
+        <v>2.51</v>
+      </c>
+      <c r="AC47">
+        <v>8.6</v>
+      </c>
+      <c r="AD47">
         <v>1.73</v>
       </c>
-      <c r="S47">
-        <v>2</v>
-      </c>
-      <c r="T47">
-        <v>1.27</v>
-      </c>
-      <c r="U47">
-        <v>1.27</v>
-      </c>
-      <c r="V47">
-        <v>1.86</v>
-      </c>
-      <c r="W47">
-        <v>2.57</v>
-      </c>
-      <c r="X47">
-        <v>1.14</v>
-      </c>
-      <c r="Y47">
-        <v>1.68</v>
-      </c>
-      <c r="Z47">
-        <v>1.57</v>
-      </c>
-      <c r="AA47">
-        <v>3.25</v>
-      </c>
-      <c r="AB47">
-        <v>1.63</v>
-      </c>
-      <c r="AC47">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD47">
-        <v>2.64</v>
-      </c>
       <c r="AE47">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AF47">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="AG47">
-        <v>1.87</v>
+        <v>2.23</v>
       </c>
       <c r="AH47">
-        <v>2.42</v>
+        <v>3.04</v>
       </c>
       <c r="AI47">
-        <v>3.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:35">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" s="2">
         <v>45095</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F48" t="s">
         <v>168</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="W48">
-        <v>1.73</v>
+        <v>2.57</v>
       </c>
       <c r="X48">
-        <v>2.05</v>
+        <v>1.14</v>
       </c>
       <c r="Y48">
-        <v>1.35</v>
+        <v>1.68</v>
       </c>
       <c r="Z48">
-        <v>1.13</v>
+        <v>1.57</v>
       </c>
       <c r="AA48">
-        <v>2.48</v>
+        <v>3.25</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AC48">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD48">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AE48">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF48">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG48">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AH48">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AI48">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="49" spans="1:35">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2">
         <v>45095</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D49">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F49" t="s">
         <v>169</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -6071,10 +6074,10 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -6098,19 +6101,19 @@
         <v>0</v>
       </c>
       <c r="W49">
-        <v>2.67</v>
+        <v>1.73</v>
       </c>
       <c r="X49">
-        <v>0.83</v>
+        <v>2.05</v>
       </c>
       <c r="Y49">
-        <v>1.81</v>
+        <v>1.35</v>
       </c>
       <c r="Z49">
-        <v>0.91</v>
+        <v>1.13</v>
       </c>
       <c r="AA49">
-        <v>2.72</v>
+        <v>2.48</v>
       </c>
       <c r="AB49">
         <v>0</v>
@@ -6139,108 +6142,215 @@
     </row>
     <row r="50" spans="1:35">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B50" s="2">
         <v>45095</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D50">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F50" t="s">
         <v>170</v>
       </c>
       <c r="G50">
+        <v>1.79</v>
+      </c>
+      <c r="H50">
+        <v>3.55</v>
+      </c>
+      <c r="I50">
+        <v>4.2</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1.94</v>
+      </c>
+      <c r="O50">
+        <v>1.84</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>2.67</v>
+      </c>
+      <c r="X50">
+        <v>0.83</v>
+      </c>
+      <c r="Y50">
+        <v>1.81</v>
+      </c>
+      <c r="Z50">
+        <v>0.91</v>
+      </c>
+      <c r="AA50">
+        <v>2.72</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="2">
+        <v>45095</v>
+      </c>
+      <c r="C51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>121</v>
+      </c>
+      <c r="F51" t="s">
+        <v>171</v>
+      </c>
+      <c r="G51">
         <v>1.86</v>
       </c>
-      <c r="H50">
+      <c r="H51">
         <v>3.3</v>
       </c>
-      <c r="I50">
+      <c r="I51">
         <v>3.55</v>
       </c>
-      <c r="J50">
+      <c r="J51">
         <v>1.06</v>
       </c>
-      <c r="K50">
+      <c r="K51">
         <v>8</v>
       </c>
-      <c r="L50">
+      <c r="L51">
         <v>1.33</v>
       </c>
-      <c r="M50">
+      <c r="M51">
         <v>3.1</v>
       </c>
-      <c r="N50">
+      <c r="N51">
         <v>2.05</v>
       </c>
-      <c r="O50">
+      <c r="O51">
         <v>1.67</v>
       </c>
-      <c r="P50">
+      <c r="P51">
         <v>1.41</v>
       </c>
-      <c r="Q50">
+      <c r="Q51">
         <v>2.7</v>
       </c>
-      <c r="R50">
+      <c r="R51">
         <v>1.8</v>
       </c>
-      <c r="S50">
+      <c r="S51">
         <v>1.95</v>
       </c>
-      <c r="T50">
+      <c r="T51">
         <v>1.25</v>
       </c>
-      <c r="U50">
+      <c r="U51">
         <v>1.25</v>
       </c>
-      <c r="V50">
+      <c r="V51">
         <v>1.63</v>
       </c>
-      <c r="W50">
+      <c r="W51">
         <v>2.71</v>
       </c>
-      <c r="X50">
+      <c r="X51">
         <v>1.44</v>
       </c>
-      <c r="Y50">
+      <c r="Y51">
         <v>1.73</v>
       </c>
-      <c r="Z50">
+      <c r="Z51">
         <v>1.65</v>
       </c>
-      <c r="AA50">
+      <c r="AA51">
         <v>3.38</v>
       </c>
-      <c r="AB50">
-        <v>0</v>
-      </c>
-      <c r="AC50">
-        <v>0</v>
-      </c>
-      <c r="AD50">
-        <v>0</v>
-      </c>
-      <c r="AE50">
-        <v>0</v>
-      </c>
-      <c r="AF50">
-        <v>0</v>
-      </c>
-      <c r="AG50">
-        <v>0</v>
-      </c>
-      <c r="AH50">
-        <v>0</v>
-      </c>
-      <c r="AI50">
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <v>1.8</v>
+      </c>
+      <c r="AG51">
+        <v>0</v>
+      </c>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-06-18_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-18_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="169">
   <si>
     <t>League</t>
   </si>
@@ -136,15 +136,15 @@
     <t>Uruguay Segunda División</t>
   </si>
   <si>
+    <t>Chile Segunda División</t>
+  </si>
+  <si>
     <t>Argentina Prim B Nacional</t>
   </si>
   <si>
     <t>Chile Primera B</t>
   </si>
   <si>
-    <t>Chile Segunda División</t>
-  </si>
-  <si>
     <t>Brazil Serie C</t>
   </si>
   <si>
@@ -181,6 +181,9 @@
     <t>12:30:00</t>
   </si>
   <si>
+    <t>13:00:00</t>
+  </si>
+  <si>
     <t>13:10:00</t>
   </si>
   <si>
@@ -256,27 +259,27 @@
     <t>Uruguay Montevideo FC</t>
   </si>
   <si>
+    <t>Concepción</t>
+  </si>
+  <si>
     <t>Patronato</t>
   </si>
   <si>
     <t>Deportes Temuco</t>
   </si>
   <si>
+    <t>Sud América</t>
+  </si>
+  <si>
+    <t>Defensores de Belgrano</t>
+  </si>
+  <si>
+    <t>Bella Vista</t>
+  </si>
+  <si>
     <t>Tuna Luso</t>
   </si>
   <si>
-    <t>Defensores de Belgrano</t>
-  </si>
-  <si>
-    <t>Bella Vista</t>
-  </si>
-  <si>
-    <t>Sud América</t>
-  </si>
-  <si>
-    <t>Caxias</t>
-  </si>
-  <si>
     <t>Uniclinic</t>
   </si>
   <si>
@@ -286,60 +289,54 @@
     <t>Gimnasia Mendoza</t>
   </si>
   <si>
+    <t>Globo</t>
+  </si>
+  <si>
+    <t>Club Atlético Güemes</t>
+  </si>
+  <si>
     <t>Peñarol</t>
   </si>
   <si>
-    <t>Globo</t>
-  </si>
-  <si>
-    <t>Independiente FSJ</t>
-  </si>
-  <si>
     <t>Club Atlético Mitre</t>
   </si>
   <si>
-    <t>Club Atlético Güemes</t>
+    <t>CEOV Operário</t>
+  </si>
+  <si>
+    <t>Real Ariquemes</t>
+  </si>
+  <si>
+    <t>Brasil de Pelotas</t>
+  </si>
+  <si>
+    <t>Manaus</t>
+  </si>
+  <si>
+    <t>Brasiliense</t>
+  </si>
+  <si>
+    <t>Cascavel CR</t>
+  </si>
+  <si>
+    <t>Cruzeiro Arapiraca</t>
+  </si>
+  <si>
+    <t>Trem</t>
   </si>
   <si>
     <t>Sousa</t>
   </si>
   <si>
-    <t>Trem</t>
+    <t>Falcon</t>
   </si>
   <si>
     <t>La Serena</t>
   </si>
   <si>
-    <t>Concepción</t>
-  </si>
-  <si>
-    <t>Real Ariquemes</t>
-  </si>
-  <si>
-    <t>Falcon</t>
-  </si>
-  <si>
-    <t>Manaus</t>
-  </si>
-  <si>
     <t>Anápolis</t>
   </si>
   <si>
-    <t>CEOV Operário</t>
-  </si>
-  <si>
-    <t>Cascavel CR</t>
-  </si>
-  <si>
-    <t>Brasil de Pelotas</t>
-  </si>
-  <si>
-    <t>Cruzeiro Arapiraca</t>
-  </si>
-  <si>
-    <t>Brasiliense</t>
-  </si>
-  <si>
     <t>Ypiranga Erechim</t>
   </si>
   <si>
@@ -355,12 +352,12 @@
     <t>Deportivo Cuenca</t>
   </si>
   <si>
+    <t>Defensor Sporting</t>
+  </si>
+  <si>
     <t>Sport Recife</t>
   </si>
   <si>
-    <t>Defensor Sporting</t>
-  </si>
-  <si>
     <t>Antofagasta</t>
   </si>
   <si>
@@ -406,27 +403,27 @@
     <t>Rampla Juniors</t>
   </si>
   <si>
+    <t>Fernández Vial</t>
+  </si>
+  <si>
     <t>Defensores Unidos</t>
   </si>
   <si>
     <t>Puerto Montt</t>
   </si>
   <si>
+    <t>Juventud</t>
+  </si>
+  <si>
+    <t>San Telmo</t>
+  </si>
+  <si>
+    <t>Tacuarembó</t>
+  </si>
+  <si>
     <t>São Raimundo RR</t>
   </si>
   <si>
-    <t>San Telmo</t>
-  </si>
-  <si>
-    <t>Tacuarembó</t>
-  </si>
-  <si>
-    <t>Juventud</t>
-  </si>
-  <si>
-    <t>Hercílio Luz</t>
-  </si>
-  <si>
     <t>Cordino</t>
   </si>
   <si>
@@ -436,60 +433,54 @@
     <t>San Martín San Juan</t>
   </si>
   <si>
+    <t>Nacional de Patos</t>
+  </si>
+  <si>
+    <t>Guillermo Brown</t>
+  </si>
+  <si>
     <t>River Plate</t>
   </si>
   <si>
-    <t>Nacional de Patos</t>
-  </si>
-  <si>
-    <t>Aimoré</t>
-  </si>
-  <si>
     <t>Villa Dálmine</t>
   </si>
   <si>
-    <t>Guillermo Brown</t>
+    <t>Interporto</t>
+  </si>
+  <si>
+    <t>Iporá</t>
+  </si>
+  <si>
+    <t>Camboriú</t>
+  </si>
+  <si>
+    <t>EC São José</t>
+  </si>
+  <si>
+    <t>União Rondonópolis</t>
+  </si>
+  <si>
+    <t>XV de Piracicaba</t>
+  </si>
+  <si>
+    <t>Jacuipense</t>
+  </si>
+  <si>
+    <t>São Francisco</t>
   </si>
   <si>
     <t>Potiguar Mossoró</t>
   </si>
   <si>
-    <t>São Francisco</t>
+    <t>Bahia de Feira</t>
   </si>
   <si>
     <t>Recoleta</t>
   </si>
   <si>
-    <t>Fernández Vial</t>
-  </si>
-  <si>
-    <t>Iporá</t>
-  </si>
-  <si>
-    <t>Bahia de Feira</t>
-  </si>
-  <si>
-    <t>EC São José</t>
-  </si>
-  <si>
     <t>Ceilândia</t>
   </si>
   <si>
-    <t>Interporto</t>
-  </si>
-  <si>
-    <t>XV de Piracicaba</t>
-  </si>
-  <si>
-    <t>Camboriú</t>
-  </si>
-  <si>
-    <t>Jacuipense</t>
-  </si>
-  <si>
-    <t>União Rondonópolis</t>
-  </si>
-  <si>
     <t>Operário PR</t>
   </si>
   <si>
@@ -505,10 +496,10 @@
     <t>CS Emelec</t>
   </si>
   <si>
+    <t>Wanderers</t>
+  </si>
+  <si>
     <t>Vila Nova</t>
-  </si>
-  <si>
-    <t>Wanderers</t>
   </si>
   <si>
     <t>Deportes Iquique</t>
@@ -891,7 +882,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI51"/>
+  <dimension ref="A1:AI49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1018,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G2">
-        <v>1.65</v>
+        <v>1.49</v>
       </c>
       <c r="H2">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I2">
-        <v>4.78</v>
+        <v>5.25</v>
       </c>
       <c r="J2">
         <v>1.01</v>
@@ -1072,10 +1063,10 @@
         <v>2.2</v>
       </c>
       <c r="W2">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="X2">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="Y2">
         <v>1.5</v>
@@ -1125,19 +1116,19 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G3">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="H3">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I3">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="J3">
         <v>1.06</v>
@@ -1152,10 +1143,10 @@
         <v>3.3</v>
       </c>
       <c r="N3">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O3">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="P3">
         <v>1.4</v>
@@ -1179,10 +1170,10 @@
         <v>1.2</v>
       </c>
       <c r="W3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="Y3">
         <v>1.28</v>
@@ -1232,19 +1223,19 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G4">
+        <v>3.1</v>
+      </c>
+      <c r="H4">
         <v>2.9</v>
       </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
       <c r="I4">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="J4">
         <v>1.05</v>
@@ -1259,10 +1250,10 @@
         <v>2.81</v>
       </c>
       <c r="N4">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="O4">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="P4">
         <v>1.5</v>
@@ -1286,10 +1277,10 @@
         <v>1.3</v>
       </c>
       <c r="W4">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="X4">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="Y4">
         <v>1.58</v>
@@ -1339,19 +1330,19 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G5">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="H5">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>4.15</v>
       </c>
       <c r="J5">
         <v>1.08</v>
@@ -1366,10 +1357,10 @@
         <v>2.7</v>
       </c>
       <c r="N5">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="O5">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="P5">
         <v>1.5</v>
@@ -1393,10 +1384,10 @@
         <v>2.1</v>
       </c>
       <c r="W5">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="X5">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="Y5">
         <v>1.36</v>
@@ -1446,19 +1437,19 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G6">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="H6">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I6">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="J6">
         <v>1.12</v>
@@ -1473,10 +1464,10 @@
         <v>2.35</v>
       </c>
       <c r="N6">
-        <v>2.75</v>
+        <v>2.68</v>
       </c>
       <c r="O6">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P6">
         <v>1.62</v>
@@ -1500,10 +1491,10 @@
         <v>1.18</v>
       </c>
       <c r="W6">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="X6">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="Y6">
         <v>1.29</v>
@@ -1553,19 +1544,19 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G7">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="I7">
-        <v>3.37</v>
+        <v>3.2</v>
       </c>
       <c r="J7">
         <v>1.05</v>
@@ -1580,10 +1571,10 @@
         <v>2.71</v>
       </c>
       <c r="N7">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="O7">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P7">
         <v>1.44</v>
@@ -1607,10 +1598,10 @@
         <v>1.67</v>
       </c>
       <c r="W7">
+        <v>0.89</v>
+      </c>
+      <c r="X7">
         <v>0.63</v>
-      </c>
-      <c r="X7">
-        <v>0.71</v>
       </c>
       <c r="Y7">
         <v>1.05</v>
@@ -1660,31 +1651,31 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G8">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="H8">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="I8">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="N8">
         <v>2.3</v>
@@ -1693,31 +1684,31 @@
         <v>1.48</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S8">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="X8">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="Y8">
         <v>1.58</v>
@@ -1767,19 +1758,19 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G9">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H9">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J9">
         <v>1.06</v>
@@ -1794,10 +1785,10 @@
         <v>2.75</v>
       </c>
       <c r="N9">
-        <v>2.12</v>
+        <v>2.23</v>
       </c>
       <c r="O9">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="P9">
         <v>1.51</v>
@@ -1821,10 +1812,10 @@
         <v>1.48</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="X9">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="Y9">
         <v>1.44</v>
@@ -1848,16 +1839,16 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1871,100 +1862,100 @@
         <v>55</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G10">
-        <v>1.67</v>
+        <v>2.7</v>
       </c>
       <c r="H10">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="I10">
-        <v>4.72</v>
+        <v>2.33</v>
       </c>
       <c r="J10">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K10">
-        <v>7.1</v>
+        <v>8.75</v>
       </c>
       <c r="L10">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="M10">
-        <v>2.64</v>
+        <v>2.8</v>
       </c>
       <c r="N10">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="O10">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="P10">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="Q10">
         <v>2.4</v>
       </c>
       <c r="R10">
-        <v>2.2</v>
+        <v>1.86</v>
       </c>
       <c r="S10">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="T10">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="U10">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="V10">
-        <v>2.1</v>
+        <v>1.39</v>
       </c>
       <c r="W10">
-        <v>1.33</v>
+        <v>0.57</v>
       </c>
       <c r="X10">
-        <v>0.78</v>
+        <v>1.17</v>
       </c>
       <c r="Y10">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="Z10">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="AA10">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="AB10">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>3.76</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AF10">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="AG10">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AH10">
-        <v>2.43</v>
+        <v>2.7</v>
       </c>
       <c r="AI10">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1978,105 +1969,105 @@
         <v>56</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G11">
-        <v>1.64</v>
+        <v>1.77</v>
       </c>
       <c r="H11">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I11">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="J11">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K11">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="L11">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>2.64</v>
       </c>
       <c r="N11">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O11">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P11">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="Q11">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="R11">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="S11">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="T11">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="U11">
         <v>1.29</v>
       </c>
       <c r="V11">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W11">
+        <v>1.5</v>
+      </c>
+      <c r="X11">
+        <v>0.7</v>
+      </c>
+      <c r="Y11">
+        <v>1.76</v>
+      </c>
+      <c r="Z11">
+        <v>1.01</v>
+      </c>
+      <c r="AA11">
+        <v>2.77</v>
+      </c>
+      <c r="AB11">
+        <v>1.38</v>
+      </c>
+      <c r="AC11">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AD11">
+        <v>3.76</v>
+      </c>
+      <c r="AE11">
+        <v>1.33</v>
+      </c>
+      <c r="AF11">
+        <v>1.57</v>
+      </c>
+      <c r="AG11">
+        <v>1.94</v>
+      </c>
+      <c r="AH11">
         <v>2.43</v>
       </c>
-      <c r="X11">
-        <v>0.67</v>
-      </c>
-      <c r="Y11">
-        <v>1.8</v>
-      </c>
-      <c r="Z11">
-        <v>1.15</v>
-      </c>
-      <c r="AA11">
-        <v>2.95</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>1.98</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
       <c r="AI11">
-        <v>0</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="12" spans="1:35">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2">
         <v>45095</v>
@@ -2085,76 +2076,76 @@
         <v>57</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G12">
-        <v>1.99</v>
+        <v>1.64</v>
       </c>
       <c r="H12">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="I12">
-        <v>3.9</v>
+        <v>4.45</v>
       </c>
       <c r="J12">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="K12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L12">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M12">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>1.94</v>
+        <v>2.23</v>
       </c>
       <c r="O12">
-        <v>1.77</v>
+        <v>1.58</v>
       </c>
       <c r="P12">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="Q12">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="R12">
-        <v>1.78</v>
+        <v>2.04</v>
       </c>
       <c r="S12">
-        <v>1.99</v>
+        <v>1.74</v>
       </c>
       <c r="T12">
-        <v>1.26</v>
+        <v>1.12</v>
       </c>
       <c r="U12">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="V12">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="W12">
-        <v>2.33</v>
+        <v>2.13</v>
       </c>
       <c r="X12">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Z12">
-        <v>1.56</v>
+        <v>1.15</v>
       </c>
       <c r="AA12">
-        <v>3.37</v>
+        <v>2.95</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -2172,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH12">
         <v>0</v>
@@ -2183,213 +2174,213 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2">
         <v>45095</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G13">
-        <v>1.7</v>
+        <v>2.62</v>
       </c>
       <c r="H13">
-        <v>3.3</v>
+        <v>2.82</v>
       </c>
       <c r="I13">
-        <v>4.68</v>
+        <v>2.48</v>
       </c>
       <c r="J13">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K13">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="L13">
+        <v>1.4</v>
+      </c>
+      <c r="M13">
+        <v>2.57</v>
+      </c>
+      <c r="N13">
+        <v>2.31</v>
+      </c>
+      <c r="O13">
+        <v>1.49</v>
+      </c>
+      <c r="P13">
+        <v>1.55</v>
+      </c>
+      <c r="Q13">
+        <v>2.23</v>
+      </c>
+      <c r="R13">
+        <v>2.06</v>
+      </c>
+      <c r="S13">
+        <v>1.73</v>
+      </c>
+      <c r="T13">
+        <v>1.45</v>
+      </c>
+      <c r="U13">
+        <v>1.34</v>
+      </c>
+      <c r="V13">
         <v>1.41</v>
       </c>
-      <c r="M13">
-        <v>2.65</v>
-      </c>
-      <c r="N13">
-        <v>2.32</v>
-      </c>
-      <c r="O13">
-        <v>1.54</v>
-      </c>
-      <c r="P13">
-        <v>1.52</v>
-      </c>
-      <c r="Q13">
-        <v>2.35</v>
-      </c>
-      <c r="R13">
-        <v>2.1</v>
-      </c>
-      <c r="S13">
-        <v>1.65</v>
-      </c>
-      <c r="T13">
-        <v>1.22</v>
-      </c>
-      <c r="U13">
-        <v>1.3</v>
-      </c>
-      <c r="V13">
-        <v>1.88</v>
-      </c>
       <c r="W13">
-        <v>1.67</v>
+        <v>0.86</v>
       </c>
       <c r="X13">
-        <v>0.5600000000000001</v>
+        <v>1.43</v>
       </c>
       <c r="Y13">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="Z13">
-        <v>1.14</v>
+        <v>1.58</v>
       </c>
       <c r="AA13">
-        <v>2.45</v>
+        <v>2.83</v>
       </c>
       <c r="AB13">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD13">
-        <v>3.62</v>
+        <v>0</v>
       </c>
       <c r="AE13">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>1.96</v>
+        <v>1.37</v>
       </c>
       <c r="AG13">
-        <v>2.45</v>
+        <v>1.66</v>
       </c>
       <c r="AH13">
-        <v>3.08</v>
+        <v>2.12</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="14" spans="1:35">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2">
         <v>45095</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G14">
-        <v>2.55</v>
+        <v>2.06</v>
       </c>
       <c r="H14">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I14">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="N14">
-        <v>2.08</v>
+        <v>2.43</v>
       </c>
       <c r="O14">
-        <v>1.73</v>
+        <v>1.52</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="W14">
-        <v>0.67</v>
+        <v>1.8</v>
       </c>
       <c r="X14">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="Y14">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="Z14">
-        <v>1.26</v>
+        <v>1.14</v>
       </c>
       <c r="AA14">
-        <v>2.39</v>
+        <v>2.45</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>3.62</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AI14">
         <v>0</v>
@@ -2403,79 +2394,79 @@
         <v>45095</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G15">
-        <v>2.62</v>
+        <v>2.45</v>
       </c>
       <c r="H15">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="I15">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="J15">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>2.57</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>2.31</v>
+        <v>2.05</v>
       </c>
       <c r="O15">
-        <v>1.49</v>
+        <v>1.7</v>
       </c>
       <c r="P15">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="W15">
+        <v>0.57</v>
+      </c>
+      <c r="X15">
         <v>1</v>
       </c>
-      <c r="X15">
-        <v>1.17</v>
-      </c>
       <c r="Y15">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="Z15">
-        <v>1.58</v>
+        <v>1.26</v>
       </c>
       <c r="AA15">
-        <v>2.83</v>
+        <v>2.39</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -2510,79 +2501,79 @@
         <v>45095</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G16">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I16">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="W16">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="X16">
-        <v>1.25</v>
+        <v>0.2</v>
       </c>
       <c r="Y16">
-        <v>2.09</v>
+        <v>1.81</v>
       </c>
       <c r="Z16">
-        <v>1.2</v>
+        <v>1.56</v>
       </c>
       <c r="AA16">
-        <v>3.29</v>
+        <v>3.37</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -2600,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH16">
         <v>0</v>
@@ -2617,25 +2608,25 @@
         <v>45095</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D17">
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="H17">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I17">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="J17">
         <v>1.05</v>
@@ -2662,10 +2653,10 @@
         <v>2.6</v>
       </c>
       <c r="R17">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="S17">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="T17">
         <v>1.24</v>
@@ -2677,10 +2668,10 @@
         <v>1.7</v>
       </c>
       <c r="W17">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="X17">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Y17">
         <v>1.67</v>
@@ -2724,70 +2715,70 @@
         <v>45095</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18">
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G18">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="H18">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I18">
-        <v>5.2</v>
+        <v>4.75</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="N18">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="O18">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W18">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="X18">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="Y18">
         <v>1.61</v>
@@ -2814,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH18">
         <v>0</v>
@@ -2825,31 +2816,31 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2">
         <v>45095</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19">
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G19">
-        <v>2.24</v>
+        <v>2.55</v>
       </c>
       <c r="H19">
         <v>3.05</v>
       </c>
       <c r="I19">
-        <v>3.02</v>
+        <v>2.65</v>
       </c>
       <c r="J19">
         <v>1.1</v>
@@ -2864,10 +2855,10 @@
         <v>2.43</v>
       </c>
       <c r="N19">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="O19">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P19">
         <v>1.55</v>
@@ -2891,10 +2882,10 @@
         <v>1.57</v>
       </c>
       <c r="W19">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="X19">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="Y19">
         <v>1.41</v>
@@ -2932,213 +2923,213 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2">
         <v>45095</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20">
+        <v>4.5</v>
+      </c>
+      <c r="H20">
+        <v>3.35</v>
+      </c>
+      <c r="I20">
+        <v>1.7</v>
+      </c>
+      <c r="J20">
+        <v>1.03</v>
+      </c>
+      <c r="K20">
+        <v>9</v>
+      </c>
+      <c r="L20">
+        <v>1.31</v>
+      </c>
+      <c r="M20">
+        <v>3.2</v>
+      </c>
+      <c r="N20">
+        <v>1.96</v>
+      </c>
+      <c r="O20">
+        <v>1.77</v>
+      </c>
+      <c r="P20">
+        <v>1.38</v>
+      </c>
+      <c r="Q20">
+        <v>2.8</v>
+      </c>
+      <c r="R20">
+        <v>2.01</v>
+      </c>
+      <c r="S20">
+        <v>1.76</v>
+      </c>
+      <c r="T20">
+        <v>2.12</v>
+      </c>
+      <c r="U20">
+        <v>1.24</v>
+      </c>
+      <c r="V20">
+        <v>1.15</v>
+      </c>
+      <c r="W20">
+        <v>0.8</v>
+      </c>
+      <c r="X20">
+        <v>0.75</v>
+      </c>
+      <c r="Y20">
+        <v>1.4</v>
+      </c>
+      <c r="Z20">
+        <v>0.89</v>
+      </c>
+      <c r="AA20">
+        <v>2.29</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
         <v>2</v>
       </c>
-      <c r="E20" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" t="s">
-        <v>140</v>
-      </c>
-      <c r="G20">
-        <v>1.49</v>
-      </c>
-      <c r="H20">
-        <v>3.9</v>
-      </c>
-      <c r="I20">
-        <v>5.1</v>
-      </c>
-      <c r="J20">
-        <v>1.05</v>
-      </c>
-      <c r="K20">
-        <v>11.5</v>
-      </c>
-      <c r="L20">
-        <v>1.29</v>
-      </c>
-      <c r="M20">
-        <v>3.28</v>
-      </c>
-      <c r="N20">
-        <v>1.9</v>
-      </c>
-      <c r="O20">
-        <v>1.9</v>
-      </c>
-      <c r="P20">
-        <v>1.4</v>
-      </c>
-      <c r="Q20">
-        <v>2.75</v>
-      </c>
-      <c r="R20">
-        <v>1.95</v>
-      </c>
-      <c r="S20">
-        <v>1.75</v>
-      </c>
-      <c r="T20">
-        <v>1.13</v>
-      </c>
-      <c r="U20">
-        <v>1.2</v>
-      </c>
-      <c r="V20">
-        <v>2.3</v>
-      </c>
-      <c r="W20">
-        <v>2.56</v>
-      </c>
-      <c r="X20">
-        <v>0.63</v>
-      </c>
-      <c r="Y20">
-        <v>1.05</v>
-      </c>
-      <c r="Z20">
-        <v>0.7</v>
-      </c>
-      <c r="AA20">
-        <v>1.75</v>
-      </c>
-      <c r="AB20">
-        <v>1.29</v>
-      </c>
-      <c r="AC20">
-        <v>9.5</v>
-      </c>
-      <c r="AD20">
-        <v>4.32</v>
-      </c>
-      <c r="AE20">
-        <v>1.27</v>
-      </c>
-      <c r="AF20">
-        <v>1.43</v>
-      </c>
-      <c r="AG20">
-        <v>1.8</v>
-      </c>
       <c r="AH20">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="AI20">
-        <v>3.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2">
         <v>45095</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G21">
-        <v>5.2</v>
+        <v>2.4</v>
       </c>
       <c r="H21">
-        <v>3.3</v>
+        <v>2.65</v>
       </c>
       <c r="I21">
-        <v>1.71</v>
+        <v>3.25</v>
       </c>
       <c r="J21">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="K21">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="L21">
-        <v>1.31</v>
+        <v>1.58</v>
       </c>
       <c r="M21">
-        <v>3.2</v>
+        <v>2.28</v>
       </c>
       <c r="N21">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O21">
-        <v>1.83</v>
+        <v>1.47</v>
       </c>
       <c r="P21">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="Q21">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="R21">
-        <v>1.86</v>
+        <v>2.1</v>
       </c>
       <c r="S21">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="T21">
-        <v>2.12</v>
+        <v>1.3</v>
       </c>
       <c r="U21">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
       <c r="V21">
-        <v>1.15</v>
+        <v>1.53</v>
       </c>
       <c r="W21">
         <v>1</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="Z21">
-        <v>0.89</v>
+        <v>1.27</v>
       </c>
       <c r="AA21">
-        <v>2.29</v>
+        <v>2.59</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AI21">
         <v>0</v>
@@ -3146,138 +3137,138 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2">
         <v>45095</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G22">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="I22">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="W22">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="X22">
-        <v>0.33</v>
+        <v>0.89</v>
       </c>
       <c r="Y22">
-        <v>1.49</v>
+        <v>1.05</v>
       </c>
       <c r="Z22">
-        <v>1.49</v>
+        <v>0.7</v>
       </c>
       <c r="AA22">
-        <v>2.98</v>
+        <v>1.75</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>4.32</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="23" spans="1:35">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2">
         <v>45095</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D23">
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G23">
-        <v>1.48</v>
+        <v>1.83</v>
       </c>
       <c r="H23">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="I23">
-        <v>6.29</v>
+        <v>4.1</v>
       </c>
       <c r="J23">
         <v>1.08</v>
@@ -3292,10 +3283,10 @@
         <v>2.6</v>
       </c>
       <c r="N23">
-        <v>2.41</v>
+        <v>2.35</v>
       </c>
       <c r="O23">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="P23">
         <v>1.51</v>
@@ -3319,7 +3310,7 @@
         <v>2.41</v>
       </c>
       <c r="W23">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -3360,106 +3351,106 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2">
         <v>45095</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G24">
-        <v>2.14</v>
+        <v>1.07</v>
       </c>
       <c r="H24">
-        <v>2.95</v>
+        <v>10</v>
       </c>
       <c r="I24">
-        <v>3.35</v>
+        <v>19</v>
       </c>
       <c r="J24">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="K24">
+        <v>25</v>
+      </c>
+      <c r="L24">
+        <v>1.02</v>
+      </c>
+      <c r="M24">
+        <v>7.25</v>
+      </c>
+      <c r="N24">
+        <v>1.19</v>
+      </c>
+      <c r="O24">
+        <v>3.72</v>
+      </c>
+      <c r="P24">
+        <v>1.11</v>
+      </c>
+      <c r="Q24">
         <v>5.5</v>
       </c>
-      <c r="L24">
-        <v>1.57</v>
-      </c>
-      <c r="M24">
-        <v>2.25</v>
-      </c>
-      <c r="N24">
-        <v>2.81</v>
-      </c>
-      <c r="O24">
-        <v>1.38</v>
-      </c>
-      <c r="P24">
+      <c r="R24">
+        <v>2.4</v>
+      </c>
+      <c r="S24">
+        <v>1.47</v>
+      </c>
+      <c r="T24">
+        <v>1.01</v>
+      </c>
+      <c r="U24">
+        <v>1.01</v>
+      </c>
+      <c r="V24">
+        <v>6.5</v>
+      </c>
+      <c r="W24">
         <v>1.6</v>
       </c>
-      <c r="Q24">
-        <v>2.2</v>
-      </c>
-      <c r="R24">
-        <v>2.1</v>
-      </c>
-      <c r="S24">
-        <v>1.63</v>
-      </c>
-      <c r="T24">
-        <v>1.3</v>
-      </c>
-      <c r="U24">
-        <v>1.43</v>
-      </c>
-      <c r="V24">
-        <v>1.53</v>
-      </c>
-      <c r="W24">
-        <v>1</v>
-      </c>
       <c r="X24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>1.32</v>
+        <v>1.65</v>
       </c>
       <c r="Z24">
-        <v>1.27</v>
+        <v>0.76</v>
       </c>
       <c r="AA24">
-        <v>2.59</v>
+        <v>2.41</v>
       </c>
       <c r="AB24">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AD24">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="AE24">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="AG24">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="AH24">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="AI24">
         <v>0</v>
@@ -3473,25 +3464,25 @@
         <v>45095</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D25">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G25">
-        <v>1.71</v>
+        <v>4.5</v>
       </c>
       <c r="H25">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I25">
-        <v>5.2</v>
+        <v>1.7</v>
       </c>
       <c r="J25">
         <v>1.03</v>
@@ -3509,43 +3500,43 @@
         <v>2.1</v>
       </c>
       <c r="O25">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="P25">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q25">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="R25">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="T25">
+        <v>2.03</v>
+      </c>
+      <c r="U25">
+        <v>1.27</v>
+      </c>
+      <c r="V25">
         <v>1.16</v>
       </c>
-      <c r="U25">
-        <v>1.29</v>
-      </c>
-      <c r="V25">
-        <v>2</v>
-      </c>
       <c r="W25">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="X25">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Y25">
-        <v>1.77</v>
+        <v>0.79</v>
       </c>
       <c r="Z25">
-        <v>1.17</v>
+        <v>1.6</v>
       </c>
       <c r="AA25">
-        <v>2.94</v>
+        <v>2.39</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -3580,79 +3571,79 @@
         <v>45095</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D26">
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G26">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="I26">
-        <v>6.5</v>
+        <v>3.85</v>
       </c>
       <c r="J26">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K26">
-        <v>10.25</v>
+        <v>6.7</v>
       </c>
       <c r="L26">
-        <v>1.26</v>
+        <v>1.43</v>
       </c>
       <c r="M26">
-        <v>3.45</v>
+        <v>2.41</v>
       </c>
       <c r="N26">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="O26">
         <v>1.48</v>
       </c>
       <c r="P26">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="Q26">
-        <v>2.72</v>
+        <v>2.14</v>
       </c>
       <c r="R26">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S26">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="T26">
-        <v>1.09</v>
+        <v>1.21</v>
       </c>
       <c r="U26">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="V26">
-        <v>2.55</v>
+        <v>1.74</v>
       </c>
       <c r="W26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Y26">
-        <v>1.12</v>
+        <v>1.67</v>
       </c>
       <c r="Z26">
-        <v>0.79</v>
+        <v>1.59</v>
       </c>
       <c r="AA26">
-        <v>1.91</v>
+        <v>3.26</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -3681,94 +3672,94 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2">
         <v>45095</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G27">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="H27">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="I27">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="J27">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="K27">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="L27">
+        <v>1.44</v>
+      </c>
+      <c r="M27">
+        <v>2.62</v>
+      </c>
+      <c r="N27">
+        <v>2.35</v>
+      </c>
+      <c r="O27">
+        <v>1.53</v>
+      </c>
+      <c r="P27">
+        <v>1.5</v>
+      </c>
+      <c r="Q27">
+        <v>2.5</v>
+      </c>
+      <c r="R27">
+        <v>2.1</v>
+      </c>
+      <c r="S27">
+        <v>1.7</v>
+      </c>
+      <c r="T27">
+        <v>1.2</v>
+      </c>
+      <c r="U27">
+        <v>1.35</v>
+      </c>
+      <c r="V27">
+        <v>1.83</v>
+      </c>
+      <c r="W27">
+        <v>2.25</v>
+      </c>
+      <c r="X27">
         <v>1.33</v>
       </c>
-      <c r="M27">
-        <v>3.25</v>
-      </c>
-      <c r="N27">
-        <v>1.95</v>
-      </c>
-      <c r="O27">
-        <v>1.72</v>
-      </c>
-      <c r="P27">
-        <v>1.41</v>
-      </c>
-      <c r="Q27">
-        <v>2.69</v>
-      </c>
-      <c r="R27">
-        <v>1.87</v>
-      </c>
-      <c r="S27">
-        <v>1.89</v>
-      </c>
-      <c r="T27">
-        <v>1.17</v>
-      </c>
-      <c r="U27">
-        <v>1.29</v>
-      </c>
-      <c r="V27">
-        <v>2.05</v>
-      </c>
-      <c r="W27">
-        <v>2.14</v>
-      </c>
-      <c r="X27">
-        <v>0.86</v>
-      </c>
       <c r="Y27">
-        <v>1.74</v>
+        <v>1.58</v>
       </c>
       <c r="Z27">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="AA27">
-        <v>2.94</v>
+        <v>2.63</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="AE27">
         <v>0</v>
@@ -3777,96 +3768,96 @@
         <v>0</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="28" spans="1:35">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2">
         <v>45095</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D28">
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G28">
-        <v>2.62</v>
+        <v>2.2</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I28">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="J28">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K28">
-        <v>8.75</v>
+        <v>6.7</v>
       </c>
       <c r="L28">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="M28">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N28">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="O28">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="R28">
-        <v>1.86</v>
+        <v>2.01</v>
       </c>
       <c r="S28">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="T28">
+        <v>1.29</v>
+      </c>
+      <c r="U28">
+        <v>1.36</v>
+      </c>
+      <c r="V28">
+        <v>1.59</v>
+      </c>
+      <c r="W28">
         <v>1.5</v>
-      </c>
-      <c r="U28">
-        <v>1.32</v>
-      </c>
-      <c r="V28">
-        <v>1.39</v>
-      </c>
-      <c r="W28">
-        <v>0.5</v>
       </c>
       <c r="X28">
         <v>1.2</v>
       </c>
       <c r="Y28">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="Z28">
-        <v>1.2</v>
+        <v>1.86</v>
       </c>
       <c r="AA28">
-        <v>2.82</v>
+        <v>3.41</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -3884,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH28">
         <v>0</v>
@@ -3901,79 +3892,79 @@
         <v>45095</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D29">
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G29">
-        <v>7.8</v>
+        <v>2.45</v>
       </c>
       <c r="H29">
-        <v>3.45</v>
+        <v>2.75</v>
       </c>
       <c r="I29">
-        <v>1.51</v>
+        <v>2.95</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="N29">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O29">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="R29">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="S29">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Y29">
-        <v>0.79</v>
+        <v>2.26</v>
       </c>
       <c r="Z29">
-        <v>1.6</v>
+        <v>1.21</v>
       </c>
       <c r="AA29">
-        <v>2.39</v>
+        <v>3.47</v>
       </c>
       <c r="AB29">
         <v>0</v>
@@ -4008,79 +3999,79 @@
         <v>45095</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D30">
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G30">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="H30">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I30">
+        <v>2.38</v>
+      </c>
+      <c r="J30">
+        <v>1.05</v>
+      </c>
+      <c r="K30">
+        <v>8</v>
+      </c>
+      <c r="L30">
+        <v>1.36</v>
+      </c>
+      <c r="M30">
+        <v>2.9</v>
+      </c>
+      <c r="N30">
+        <v>2.15</v>
+      </c>
+      <c r="O30">
+        <v>1.57</v>
+      </c>
+      <c r="P30">
+        <v>1.47</v>
+      </c>
+      <c r="Q30">
         <v>2.27</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>2.26</v>
-      </c>
-      <c r="O30">
-        <v>1.5</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
       <c r="R30">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W30">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="X30">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="Y30">
-        <v>1.95</v>
+        <v>1.2</v>
       </c>
       <c r="Z30">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AA30">
-        <v>3.31</v>
+        <v>2.5</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -4109,85 +4100,85 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2">
         <v>45095</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D31">
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G31">
-        <v>2.07</v>
+        <v>1.4</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I31">
-        <v>3.47</v>
+        <v>6.5</v>
       </c>
       <c r="J31">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="K31">
-        <v>6.5</v>
+        <v>10.25</v>
       </c>
       <c r="L31">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="M31">
-        <v>2.62</v>
+        <v>3.45</v>
       </c>
       <c r="N31">
-        <v>2.44</v>
+        <v>1.87</v>
       </c>
       <c r="O31">
-        <v>1.49</v>
+        <v>1.75</v>
       </c>
       <c r="P31">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="Q31">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="R31">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="S31">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="T31">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="U31">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="V31">
-        <v>1.83</v>
+        <v>2.55</v>
       </c>
       <c r="W31">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="X31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y31">
-        <v>1.58</v>
+        <v>1.12</v>
       </c>
       <c r="Z31">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AA31">
-        <v>2.63</v>
+        <v>1.91</v>
       </c>
       <c r="AB31">
         <v>0</v>
@@ -4222,79 +4213,79 @@
         <v>45095</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D32">
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G32">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="H32">
         <v>3.2</v>
       </c>
       <c r="I32">
-        <v>4.8</v>
+        <v>5.25</v>
       </c>
       <c r="J32">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L32">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N32">
-        <v>2.01</v>
+        <v>1.96</v>
       </c>
       <c r="O32">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="P32">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="Q32">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R32">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S32">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="T32">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="U32">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V32">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W32">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="X32">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Y32">
         <v>1.77</v>
       </c>
       <c r="Z32">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="AA32">
-        <v>3.12</v>
+        <v>2.94</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -4329,79 +4320,79 @@
         <v>45095</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D33">
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G33">
-        <v>1.12</v>
+        <v>2.8</v>
       </c>
       <c r="H33">
+        <v>2.9</v>
+      </c>
+      <c r="I33">
+        <v>2.4</v>
+      </c>
+      <c r="J33">
+        <v>1.1</v>
+      </c>
+      <c r="K33">
         <v>6.5</v>
       </c>
-      <c r="I33">
-        <v>22</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
       <c r="L33">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="S33">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="T33">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="U33">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="V33">
-        <v>6.5</v>
+        <v>1.38</v>
       </c>
       <c r="W33">
-        <v>1.25</v>
+        <v>0.6</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Y33">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="Z33">
-        <v>0.76</v>
+        <v>1.36</v>
       </c>
       <c r="AA33">
-        <v>2.41</v>
+        <v>3.31</v>
       </c>
       <c r="AB33">
         <v>0</v>
@@ -4419,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AH33">
         <v>0</v>
@@ -4430,85 +4421,85 @@
     </row>
     <row r="34" spans="1:35">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2">
         <v>45095</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D34">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G34">
-        <v>2.85</v>
+        <v>1.72</v>
       </c>
       <c r="H34">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="I34">
-        <v>2.46</v>
+        <v>4.6</v>
       </c>
       <c r="J34">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K34">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="L34">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="M34">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="N34">
-        <v>2.36</v>
+        <v>2.06</v>
       </c>
       <c r="O34">
-        <v>1.46</v>
+        <v>1.67</v>
       </c>
       <c r="P34">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="Q34">
-        <v>2.31</v>
+        <v>2.69</v>
       </c>
       <c r="R34">
-        <v>2.15</v>
+        <v>1.87</v>
       </c>
       <c r="S34">
-        <v>1.67</v>
+        <v>1.89</v>
       </c>
       <c r="T34">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="U34">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="V34">
-        <v>1.53</v>
+        <v>2.05</v>
       </c>
       <c r="W34">
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
       <c r="X34">
-        <v>1.33</v>
+        <v>0.75</v>
       </c>
       <c r="Y34">
-        <v>2.26</v>
+        <v>1.74</v>
       </c>
       <c r="Z34">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AA34">
-        <v>3.47</v>
+        <v>2.94</v>
       </c>
       <c r="AB34">
         <v>0</v>
@@ -4543,79 +4534,79 @@
         <v>45095</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D35">
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G35">
-        <v>2.07</v>
+        <v>1.8</v>
       </c>
       <c r="H35">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I35">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="J35">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K35">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="L35">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="M35">
-        <v>2.41</v>
+        <v>3</v>
       </c>
       <c r="N35">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O35">
+        <v>1.5</v>
+      </c>
+      <c r="P35">
         <v>1.46</v>
       </c>
-      <c r="P35">
-        <v>1.56</v>
-      </c>
       <c r="Q35">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="R35">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S35">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="T35">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="U35">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="V35">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="W35">
-        <v>1.67</v>
+        <v>2.4</v>
       </c>
       <c r="X35">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="Y35">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="Z35">
-        <v>1.59</v>
+        <v>1.35</v>
       </c>
       <c r="AA35">
-        <v>3.26</v>
+        <v>3.12</v>
       </c>
       <c r="AB35">
         <v>0</v>
@@ -4633,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AH35">
         <v>0</v>
@@ -4644,85 +4635,85 @@
     </row>
     <row r="36" spans="1:35">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2">
         <v>45095</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D36">
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G36">
-        <v>2.65</v>
+        <v>1.91</v>
       </c>
       <c r="H36">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="J36">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="M36">
-        <v>2.9</v>
+        <v>2.35</v>
       </c>
       <c r="N36">
-        <v>2.11</v>
+        <v>2.4</v>
       </c>
       <c r="O36">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P36">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="S36">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="U36">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="X36">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="Y36">
-        <v>1.2</v>
+        <v>1.68</v>
       </c>
       <c r="Z36">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="AA36">
-        <v>2.5</v>
+        <v>3.05</v>
       </c>
       <c r="AB36">
         <v>0</v>
@@ -4757,49 +4748,49 @@
         <v>45095</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D37">
         <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G37">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H37">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I37">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="J37">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K37">
-        <v>6.7</v>
+        <v>9</v>
       </c>
       <c r="L37">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="M37">
-        <v>2.46</v>
+        <v>2.84</v>
       </c>
       <c r="N37">
-        <v>2.39</v>
+        <v>2.2</v>
       </c>
       <c r="O37">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="P37">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="Q37">
-        <v>2.14</v>
+        <v>2.47</v>
       </c>
       <c r="R37">
         <v>2.05</v>
@@ -4808,28 +4799,28 @@
         <v>1.73</v>
       </c>
       <c r="T37">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="U37">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="V37">
-        <v>1.59</v>
+        <v>1.95</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X37">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="Y37">
-        <v>1.55</v>
+        <v>2.07</v>
       </c>
       <c r="Z37">
-        <v>1.86</v>
+        <v>1.33</v>
       </c>
       <c r="AA37">
-        <v>3.41</v>
+        <v>3.4</v>
       </c>
       <c r="AB37">
         <v>0</v>
@@ -4858,85 +4849,85 @@
     </row>
     <row r="38" spans="1:35">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2">
         <v>45095</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D38">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G38">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="H38">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="I38">
-        <v>3.64</v>
+        <v>5</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="N38">
-        <v>2.44</v>
+        <v>1.9</v>
       </c>
       <c r="O38">
-        <v>1.49</v>
+        <v>1.9</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="W38">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="X38">
-        <v>0.33</v>
+        <v>1.67</v>
       </c>
       <c r="Y38">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="Z38">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="AA38">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="AB38">
         <v>0</v>
@@ -4965,513 +4956,513 @@
     </row>
     <row r="39" spans="1:35">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2">
         <v>45095</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D39">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G39">
-        <v>1.46</v>
+        <v>2.2</v>
       </c>
       <c r="H39">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>7.8</v>
+        <v>3.2</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="N39">
-        <v>2.11</v>
+        <v>2.5</v>
       </c>
       <c r="O39">
+        <v>1.5</v>
+      </c>
+      <c r="P39">
+        <v>1.53</v>
+      </c>
+      <c r="Q39">
+        <v>2.41</v>
+      </c>
+      <c r="R39">
+        <v>2.09</v>
+      </c>
+      <c r="S39">
         <v>1.71</v>
       </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>1.97</v>
-      </c>
-      <c r="S39">
-        <v>1.79</v>
-      </c>
       <c r="T39">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="W39">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="X39">
-        <v>1.75</v>
+        <v>0.78</v>
       </c>
       <c r="Y39">
-        <v>2.07</v>
+        <v>1.33</v>
       </c>
       <c r="Z39">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AA39">
-        <v>3.4</v>
+        <v>2.56</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AE39">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF39">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AG39">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AI39">
-        <v>0</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="40" spans="1:35">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2">
         <v>45095</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G40">
-        <v>1.58</v>
+        <v>2.6</v>
       </c>
       <c r="H40">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I40">
-        <v>4.85</v>
+        <v>2.7</v>
       </c>
       <c r="J40">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K40">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="L40">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M40">
+        <v>3.65</v>
+      </c>
+      <c r="N40">
+        <v>1.79</v>
+      </c>
+      <c r="O40">
+        <v>1.88</v>
+      </c>
+      <c r="P40">
+        <v>1.36</v>
+      </c>
+      <c r="Q40">
+        <v>3</v>
+      </c>
+      <c r="R40">
+        <v>1.62</v>
+      </c>
+      <c r="S40">
+        <v>2.2</v>
+      </c>
+      <c r="T40">
+        <v>1.49</v>
+      </c>
+      <c r="U40">
+        <v>1.31</v>
+      </c>
+      <c r="V40">
+        <v>1.46</v>
+      </c>
+      <c r="W40">
+        <v>2.25</v>
+      </c>
+      <c r="X40">
+        <v>0.63</v>
+      </c>
+      <c r="Y40">
+        <v>1.5</v>
+      </c>
+      <c r="Z40">
+        <v>1.29</v>
+      </c>
+      <c r="AA40">
+        <v>2.79</v>
+      </c>
+      <c r="AB40">
+        <v>1.94</v>
+      </c>
+      <c r="AC40">
+        <v>8.6</v>
+      </c>
+      <c r="AD40">
+        <v>2.11</v>
+      </c>
+      <c r="AE40">
+        <v>1.28</v>
+      </c>
+      <c r="AF40">
+        <v>1.52</v>
+      </c>
+      <c r="AG40">
+        <v>1.9</v>
+      </c>
+      <c r="AH40">
+        <v>2.45</v>
+      </c>
+      <c r="AI40">
         <v>3.34</v>
-      </c>
-      <c r="N40">
-        <v>1.83</v>
-      </c>
-      <c r="O40">
-        <v>1.87</v>
-      </c>
-      <c r="P40">
-        <v>1.4</v>
-      </c>
-      <c r="Q40">
-        <v>2.75</v>
-      </c>
-      <c r="R40">
-        <v>2</v>
-      </c>
-      <c r="S40">
-        <v>1.73</v>
-      </c>
-      <c r="T40">
-        <v>1.16</v>
-      </c>
-      <c r="U40">
-        <v>1.26</v>
-      </c>
-      <c r="V40">
-        <v>2.15</v>
-      </c>
-      <c r="W40">
-        <v>1.6</v>
-      </c>
-      <c r="X40">
-        <v>2</v>
-      </c>
-      <c r="Y40">
-        <v>1.6</v>
-      </c>
-      <c r="Z40">
-        <v>1.24</v>
-      </c>
-      <c r="AA40">
-        <v>2.84</v>
-      </c>
-      <c r="AB40">
-        <v>0</v>
-      </c>
-      <c r="AC40">
-        <v>0</v>
-      </c>
-      <c r="AD40">
-        <v>0</v>
-      </c>
-      <c r="AE40">
-        <v>0</v>
-      </c>
-      <c r="AF40">
-        <v>0</v>
-      </c>
-      <c r="AG40">
-        <v>0</v>
-      </c>
-      <c r="AH40">
-        <v>0</v>
-      </c>
-      <c r="AI40">
-        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:35">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B41" s="2">
         <v>45095</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D41">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G41">
-        <v>2.15</v>
+        <v>1.71</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I41">
-        <v>3.26</v>
+        <v>4.2</v>
       </c>
       <c r="J41">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="K41">
-        <v>6.25</v>
+        <v>10.25</v>
       </c>
       <c r="L41">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="M41">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="N41">
-        <v>2.44</v>
+        <v>2.14</v>
       </c>
       <c r="O41">
-        <v>1.49</v>
+        <v>1.67</v>
       </c>
       <c r="P41">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="Q41">
-        <v>2.41</v>
+        <v>2.65</v>
       </c>
       <c r="R41">
-        <v>2.09</v>
+        <v>1.88</v>
       </c>
       <c r="S41">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="T41">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="U41">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="V41">
-        <v>1.69</v>
+        <v>1.88</v>
       </c>
       <c r="W41">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="X41">
-        <v>0.88</v>
+        <v>2</v>
       </c>
       <c r="Y41">
-        <v>1.33</v>
+        <v>2.03</v>
       </c>
       <c r="Z41">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
       <c r="AA41">
-        <v>2.56</v>
+        <v>3.37</v>
       </c>
       <c r="AB41">
+        <v>1.45</v>
+      </c>
+      <c r="AC41">
+        <v>9</v>
+      </c>
+      <c r="AD41">
+        <v>3.4</v>
+      </c>
+      <c r="AE41">
+        <v>1.24</v>
+      </c>
+      <c r="AF41">
+        <v>1.41</v>
+      </c>
+      <c r="AG41">
         <v>1.73</v>
       </c>
-      <c r="AC41">
-        <v>8.9</v>
-      </c>
-      <c r="AD41">
-        <v>2.49</v>
-      </c>
-      <c r="AE41">
-        <v>1.29</v>
-      </c>
-      <c r="AF41">
-        <v>1.6</v>
-      </c>
-      <c r="AG41">
-        <v>1.98</v>
-      </c>
       <c r="AH41">
-        <v>2.49</v>
+        <v>2.22</v>
       </c>
       <c r="AI41">
-        <v>3.42</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="42" spans="1:35">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2">
         <v>45095</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D42">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G42">
-        <v>2.5</v>
+        <v>1.64</v>
       </c>
       <c r="H42">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="I42">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="J42">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="K42">
-        <v>9</v>
+        <v>7.75</v>
       </c>
       <c r="L42">
+        <v>1.37</v>
+      </c>
+      <c r="M42">
+        <v>2.8</v>
+      </c>
+      <c r="N42">
+        <v>2.18</v>
+      </c>
+      <c r="O42">
+        <v>1.62</v>
+      </c>
+      <c r="P42">
+        <v>1.44</v>
+      </c>
+      <c r="Q42">
+        <v>2.55</v>
+      </c>
+      <c r="R42">
+        <v>2.05</v>
+      </c>
+      <c r="S42">
+        <v>1.66</v>
+      </c>
+      <c r="T42">
+        <v>1.18</v>
+      </c>
+      <c r="U42">
         <v>1.28</v>
       </c>
-      <c r="M42">
-        <v>3.65</v>
-      </c>
-      <c r="N42">
-        <v>1.79</v>
-      </c>
-      <c r="O42">
-        <v>1.88</v>
-      </c>
-      <c r="P42">
-        <v>1.36</v>
-      </c>
-      <c r="Q42">
+      <c r="V42">
+        <v>2.05</v>
+      </c>
+      <c r="W42">
         <v>3</v>
       </c>
-      <c r="R42">
-        <v>1.62</v>
-      </c>
-      <c r="S42">
-        <v>2.2</v>
-      </c>
-      <c r="T42">
-        <v>1.49</v>
-      </c>
-      <c r="U42">
-        <v>1.31</v>
-      </c>
-      <c r="V42">
-        <v>1.46</v>
-      </c>
-      <c r="W42">
-        <v>2.14</v>
-      </c>
       <c r="X42">
-        <v>0.71</v>
+        <v>1.67</v>
       </c>
       <c r="Y42">
-        <v>1.5</v>
+        <v>1.66</v>
       </c>
       <c r="Z42">
-        <v>1.29</v>
+        <v>1.83</v>
       </c>
       <c r="AA42">
-        <v>2.79</v>
+        <v>3.49</v>
       </c>
       <c r="AB42">
-        <v>1.94</v>
+        <v>1.33</v>
       </c>
       <c r="AC42">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="AD42">
-        <v>2.11</v>
+        <v>4.33</v>
       </c>
       <c r="AE42">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="AF42">
-        <v>1.52</v>
+        <v>1.74</v>
       </c>
       <c r="AG42">
-        <v>1.9</v>
+        <v>2.28</v>
       </c>
       <c r="AH42">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="AI42">
-        <v>3.34</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="43" spans="1:35">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2">
         <v>45095</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G43">
-        <v>1.85</v>
+        <v>2.12</v>
       </c>
       <c r="H43">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="I43">
-        <v>4.15</v>
+        <v>3.25</v>
       </c>
       <c r="J43">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K43">
-        <v>7.75</v>
+        <v>8</v>
       </c>
       <c r="L43">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M43">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="N43">
+        <v>1.98</v>
+      </c>
+      <c r="O43">
+        <v>1.74</v>
+      </c>
+      <c r="P43">
+        <v>1.38</v>
+      </c>
+      <c r="Q43">
+        <v>2.81</v>
+      </c>
+      <c r="R43">
+        <v>1.75</v>
+      </c>
+      <c r="S43">
+        <v>2.03</v>
+      </c>
+      <c r="T43">
+        <v>1.33</v>
+      </c>
+      <c r="U43">
+        <v>1.3</v>
+      </c>
+      <c r="V43">
+        <v>1.65</v>
+      </c>
+      <c r="W43">
         <v>2.14</v>
       </c>
-      <c r="O43">
-        <v>1.63</v>
-      </c>
-      <c r="P43">
+      <c r="X43">
         <v>1.44</v>
       </c>
-      <c r="Q43">
-        <v>2.55</v>
-      </c>
-      <c r="R43">
-        <v>2.05</v>
-      </c>
-      <c r="S43">
-        <v>1.66</v>
-      </c>
-      <c r="T43">
-        <v>1.18</v>
-      </c>
-      <c r="U43">
-        <v>1.28</v>
-      </c>
-      <c r="V43">
-        <v>2.05</v>
-      </c>
-      <c r="W43">
-        <v>3</v>
-      </c>
-      <c r="X43">
-        <v>2</v>
-      </c>
       <c r="Y43">
-        <v>1.66</v>
+        <v>1.83</v>
       </c>
       <c r="Z43">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AA43">
-        <v>3.49</v>
+        <v>3.39</v>
       </c>
       <c r="AB43">
         <v>0</v>
@@ -5483,126 +5474,126 @@
         <v>0</v>
       </c>
       <c r="AE43">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AF43">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="AG43">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="AH43">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="AI43">
-        <v>4.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:35">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2">
         <v>45095</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D44">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" t="s">
+        <v>163</v>
+      </c>
+      <c r="G44">
+        <v>1.65</v>
+      </c>
+      <c r="H44">
+        <v>3.25</v>
+      </c>
+      <c r="I44">
+        <v>5.6</v>
+      </c>
+      <c r="J44">
+        <v>1.12</v>
+      </c>
+      <c r="K44">
+        <v>5.5</v>
+      </c>
+      <c r="L44">
+        <v>1.57</v>
+      </c>
+      <c r="M44">
+        <v>2.28</v>
+      </c>
+      <c r="N44">
+        <v>2.53</v>
+      </c>
+      <c r="O44">
+        <v>1.42</v>
+      </c>
+      <c r="P44">
+        <v>1.53</v>
+      </c>
+      <c r="Q44">
+        <v>2.38</v>
+      </c>
+      <c r="R44">
+        <v>2.5</v>
+      </c>
+      <c r="S44">
+        <v>1.5</v>
+      </c>
+      <c r="T44">
+        <v>1.11</v>
+      </c>
+      <c r="U44">
+        <v>1.33</v>
+      </c>
+      <c r="V44">
+        <v>2.1</v>
+      </c>
+      <c r="W44">
         <v>2</v>
       </c>
-      <c r="E44" t="s">
-        <v>114</v>
-      </c>
-      <c r="F44" t="s">
-        <v>164</v>
-      </c>
-      <c r="G44">
-        <v>1.73</v>
-      </c>
-      <c r="H44">
-        <v>3.3</v>
-      </c>
-      <c r="I44">
-        <v>4.15</v>
-      </c>
-      <c r="J44">
-        <v>1.05</v>
-      </c>
-      <c r="K44">
-        <v>10.25</v>
-      </c>
-      <c r="L44">
-        <v>1.32</v>
-      </c>
-      <c r="M44">
+      <c r="X44">
+        <v>0.67</v>
+      </c>
+      <c r="Y44">
+        <v>1.15</v>
+      </c>
+      <c r="Z44">
+        <v>1.53</v>
+      </c>
+      <c r="AA44">
+        <v>2.68</v>
+      </c>
+      <c r="AB44">
+        <v>1.47</v>
+      </c>
+      <c r="AC44">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AD44">
         <v>3.1</v>
       </c>
-      <c r="N44">
-        <v>2.06</v>
-      </c>
-      <c r="O44">
-        <v>1.68</v>
-      </c>
-      <c r="P44">
-        <v>1.43</v>
-      </c>
-      <c r="Q44">
-        <v>2.65</v>
-      </c>
-      <c r="R44">
-        <v>1.88</v>
-      </c>
-      <c r="S44">
-        <v>1.88</v>
-      </c>
-      <c r="T44">
-        <v>1.22</v>
-      </c>
-      <c r="U44">
-        <v>1.25</v>
-      </c>
-      <c r="V44">
-        <v>1.88</v>
-      </c>
-      <c r="W44">
-        <v>1.38</v>
-      </c>
-      <c r="X44">
-        <v>2.25</v>
-      </c>
-      <c r="Y44">
-        <v>2.03</v>
-      </c>
-      <c r="Z44">
-        <v>1.34</v>
-      </c>
-      <c r="AA44">
-        <v>3.37</v>
-      </c>
-      <c r="AB44">
-        <v>1.45</v>
-      </c>
-      <c r="AC44">
-        <v>9</v>
-      </c>
-      <c r="AD44">
-        <v>3.4</v>
-      </c>
       <c r="AE44">
-        <v>1.24</v>
+        <v>1.4</v>
       </c>
       <c r="AF44">
-        <v>1.41</v>
+        <v>1.6</v>
       </c>
       <c r="AG44">
-        <v>1.73</v>
+        <v>2.01</v>
       </c>
       <c r="AH44">
-        <v>2.22</v>
+        <v>2.67</v>
       </c>
       <c r="AI44">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:35">
@@ -5613,100 +5604,100 @@
         <v>45095</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G45">
-        <v>1.96</v>
+        <v>3.1</v>
       </c>
       <c r="H45">
-        <v>3.45</v>
+        <v>2.65</v>
       </c>
       <c r="I45">
-        <v>3.15</v>
+        <v>2.5</v>
       </c>
       <c r="J45">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="K45">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="L45">
+        <v>1.53</v>
+      </c>
+      <c r="M45">
+        <v>2.4</v>
+      </c>
+      <c r="N45">
+        <v>2.55</v>
+      </c>
+      <c r="O45">
+        <v>1.48</v>
+      </c>
+      <c r="P45">
+        <v>1.57</v>
+      </c>
+      <c r="Q45">
+        <v>2.2</v>
+      </c>
+      <c r="R45">
+        <v>2.05</v>
+      </c>
+      <c r="S45">
+        <v>1.68</v>
+      </c>
+      <c r="T45">
+        <v>1.47</v>
+      </c>
+      <c r="U45">
+        <v>1.43</v>
+      </c>
+      <c r="V45">
         <v>1.33</v>
       </c>
-      <c r="M45">
-        <v>3.25</v>
-      </c>
-      <c r="N45">
-        <v>1.8</v>
-      </c>
-      <c r="O45">
-        <v>1.96</v>
-      </c>
-      <c r="P45">
-        <v>1.38</v>
-      </c>
-      <c r="Q45">
-        <v>2.81</v>
-      </c>
-      <c r="R45">
-        <v>1.75</v>
-      </c>
-      <c r="S45">
-        <v>2.03</v>
-      </c>
-      <c r="T45">
-        <v>1.33</v>
-      </c>
-      <c r="U45">
-        <v>1.3</v>
-      </c>
-      <c r="V45">
-        <v>1.65</v>
-      </c>
       <c r="W45">
-        <v>2.5</v>
+        <v>1.22</v>
       </c>
       <c r="X45">
-        <v>1.25</v>
+        <v>0.78</v>
       </c>
       <c r="Y45">
-        <v>1.83</v>
+        <v>1.32</v>
       </c>
       <c r="Z45">
-        <v>1.56</v>
+        <v>1.26</v>
       </c>
       <c r="AA45">
-        <v>3.39</v>
+        <v>2.58</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AC45">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AE45">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF45">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AG45">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH45">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AI45">
         <v>0</v>
@@ -5714,245 +5705,245 @@
     </row>
     <row r="46" spans="1:35">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2">
         <v>45095</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D46">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G46">
-        <v>1.75</v>
+        <v>2.01</v>
       </c>
       <c r="H46">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I46">
-        <v>4.53</v>
+        <v>3.35</v>
       </c>
       <c r="J46">
-        <v>1.12</v>
+        <v>1.03</v>
       </c>
       <c r="K46">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="L46">
+        <v>1.25</v>
+      </c>
+      <c r="M46">
+        <v>3.7</v>
+      </c>
+      <c r="N46">
+        <v>1.8</v>
+      </c>
+      <c r="O46">
+        <v>2</v>
+      </c>
+      <c r="P46">
+        <v>1.36</v>
+      </c>
+      <c r="Q46">
+        <v>3</v>
+      </c>
+      <c r="R46">
+        <v>1.73</v>
+      </c>
+      <c r="S46">
+        <v>2</v>
+      </c>
+      <c r="T46">
+        <v>1.27</v>
+      </c>
+      <c r="U46">
+        <v>1.27</v>
+      </c>
+      <c r="V46">
+        <v>1.86</v>
+      </c>
+      <c r="W46">
+        <v>2.57</v>
+      </c>
+      <c r="X46">
+        <v>1.14</v>
+      </c>
+      <c r="Y46">
+        <v>1.68</v>
+      </c>
+      <c r="Z46">
+        <v>1.57</v>
+      </c>
+      <c r="AA46">
+        <v>3.25</v>
+      </c>
+      <c r="AB46">
+        <v>1.63</v>
+      </c>
+      <c r="AC46">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD46">
+        <v>2.64</v>
+      </c>
+      <c r="AE46">
+        <v>1.27</v>
+      </c>
+      <c r="AF46">
         <v>1.5</v>
       </c>
-      <c r="M46">
-        <v>2.3</v>
-      </c>
-      <c r="N46">
-        <v>2.69</v>
-      </c>
-      <c r="O46">
-        <v>1.41</v>
-      </c>
-      <c r="P46">
-        <v>1.53</v>
-      </c>
-      <c r="Q46">
-        <v>2.38</v>
-      </c>
-      <c r="R46">
-        <v>2.5</v>
-      </c>
-      <c r="S46">
-        <v>1.5</v>
-      </c>
-      <c r="T46">
-        <v>1.11</v>
-      </c>
-      <c r="U46">
-        <v>1.33</v>
-      </c>
-      <c r="V46">
-        <v>2.1</v>
-      </c>
-      <c r="W46">
-        <v>2</v>
-      </c>
-      <c r="X46">
-        <v>0.67</v>
-      </c>
-      <c r="Y46">
-        <v>1.15</v>
-      </c>
-      <c r="Z46">
-        <v>1.53</v>
-      </c>
-      <c r="AA46">
-        <v>2.68</v>
-      </c>
-      <c r="AB46">
-        <v>0</v>
-      </c>
-      <c r="AC46">
-        <v>0</v>
-      </c>
-      <c r="AD46">
-        <v>0</v>
-      </c>
-      <c r="AE46">
-        <v>0</v>
-      </c>
-      <c r="AF46">
-        <v>0</v>
-      </c>
       <c r="AG46">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AH46">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AI46">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="47" spans="1:35">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2">
         <v>45095</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D47">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G47">
-        <v>3.29</v>
+        <v>1.95</v>
       </c>
       <c r="H47">
-        <v>2.85</v>
+        <v>3.25</v>
       </c>
       <c r="I47">
-        <v>2.22</v>
+        <v>3.5</v>
       </c>
       <c r="J47">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="K47">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="L47">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M47">
+        <v>2.25</v>
+      </c>
+      <c r="N47">
         <v>2.3</v>
       </c>
-      <c r="N47">
-        <v>2.73</v>
-      </c>
       <c r="O47">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="P47">
+        <v>1.56</v>
+      </c>
+      <c r="Q47">
+        <v>2.31</v>
+      </c>
+      <c r="R47">
+        <v>2.25</v>
+      </c>
+      <c r="S47">
         <v>1.57</v>
       </c>
-      <c r="Q47">
-        <v>2.2</v>
-      </c>
-      <c r="R47">
+      <c r="T47">
+        <v>1.24</v>
+      </c>
+      <c r="U47">
+        <v>1.34</v>
+      </c>
+      <c r="V47">
+        <v>1.75</v>
+      </c>
+      <c r="W47">
+        <v>1.73</v>
+      </c>
+      <c r="X47">
         <v>2.05</v>
       </c>
-      <c r="S47">
-        <v>1.68</v>
-      </c>
-      <c r="T47">
-        <v>1.47</v>
-      </c>
-      <c r="U47">
-        <v>1.43</v>
-      </c>
-      <c r="V47">
-        <v>1.33</v>
-      </c>
-      <c r="W47">
-        <v>1.22</v>
-      </c>
-      <c r="X47">
-        <v>0.78</v>
-      </c>
       <c r="Y47">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="Z47">
-        <v>1.26</v>
+        <v>1.13</v>
       </c>
       <c r="AA47">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="AB47">
-        <v>2.51</v>
+        <v>1.65</v>
       </c>
       <c r="AC47">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD47">
-        <v>1.73</v>
+        <v>2.55</v>
       </c>
       <c r="AE47">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AF47">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="AG47">
-        <v>2.23</v>
+        <v>2.1</v>
       </c>
       <c r="AH47">
-        <v>3.04</v>
+        <v>2.84</v>
       </c>
       <c r="AI47">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="48" spans="1:35">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B48" s="2">
         <v>45095</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G48">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H48">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="I48">
-        <v>3.05</v>
+        <v>5.4</v>
       </c>
       <c r="J48">
         <v>1.03</v>
@@ -5961,159 +5952,159 @@
         <v>13</v>
       </c>
       <c r="L48">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="M48">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="N48">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="O48">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="P48">
         <v>1.36</v>
       </c>
       <c r="Q48">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="R48">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="T48">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="U48">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="V48">
-        <v>1.86</v>
+        <v>2.38</v>
       </c>
       <c r="W48">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="X48">
-        <v>1.14</v>
+        <v>0.83</v>
       </c>
       <c r="Y48">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="Z48">
-        <v>1.57</v>
+        <v>0.91</v>
       </c>
       <c r="AA48">
-        <v>3.25</v>
+        <v>2.72</v>
       </c>
       <c r="AB48">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="AC48">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD48">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="AE48">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AF48">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AG48">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="AH48">
-        <v>2.42</v>
+        <v>1.98</v>
       </c>
       <c r="AI48">
-        <v>3.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:35">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B49" s="2">
         <v>45095</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G49">
+        <v>2.02</v>
+      </c>
+      <c r="H49">
+        <v>3.15</v>
+      </c>
+      <c r="I49">
+        <v>3.55</v>
+      </c>
+      <c r="J49">
+        <v>1.06</v>
+      </c>
+      <c r="K49">
+        <v>8</v>
+      </c>
+      <c r="L49">
+        <v>1.33</v>
+      </c>
+      <c r="M49">
+        <v>3.1</v>
+      </c>
+      <c r="N49">
+        <v>2.1</v>
+      </c>
+      <c r="O49">
+        <v>1.65</v>
+      </c>
+      <c r="P49">
+        <v>1.41</v>
+      </c>
+      <c r="Q49">
+        <v>2.7</v>
+      </c>
+      <c r="R49">
+        <v>1.8</v>
+      </c>
+      <c r="S49">
         <v>1.95</v>
       </c>
-      <c r="H49">
-        <v>3.25</v>
-      </c>
-      <c r="I49">
-        <v>3.5</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>2.35</v>
-      </c>
-      <c r="O49">
-        <v>1.57</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
       <c r="T49">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V49">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="W49">
+        <v>2.71</v>
+      </c>
+      <c r="X49">
+        <v>1.44</v>
+      </c>
+      <c r="Y49">
         <v>1.73</v>
       </c>
-      <c r="X49">
-        <v>2.05</v>
-      </c>
-      <c r="Y49">
-        <v>1.35</v>
-      </c>
       <c r="Z49">
-        <v>1.13</v>
+        <v>1.65</v>
       </c>
       <c r="AA49">
-        <v>2.48</v>
+        <v>3.38</v>
       </c>
       <c r="AB49">
         <v>0</v>
@@ -6128,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="AF49">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG49">
         <v>0</v>
@@ -6137,220 +6128,6 @@
         <v>0</v>
       </c>
       <c r="AI49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:35">
-      <c r="A50" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50" s="2">
-        <v>45095</v>
-      </c>
-      <c r="C50" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50">
-        <v>7</v>
-      </c>
-      <c r="E50" t="s">
-        <v>120</v>
-      </c>
-      <c r="F50" t="s">
-        <v>170</v>
-      </c>
-      <c r="G50">
-        <v>1.79</v>
-      </c>
-      <c r="H50">
-        <v>3.55</v>
-      </c>
-      <c r="I50">
-        <v>4.2</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>1.94</v>
-      </c>
-      <c r="O50">
-        <v>1.84</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>2.67</v>
-      </c>
-      <c r="X50">
-        <v>0.83</v>
-      </c>
-      <c r="Y50">
-        <v>1.81</v>
-      </c>
-      <c r="Z50">
-        <v>0.91</v>
-      </c>
-      <c r="AA50">
-        <v>2.72</v>
-      </c>
-      <c r="AB50">
-        <v>0</v>
-      </c>
-      <c r="AC50">
-        <v>0</v>
-      </c>
-      <c r="AD50">
-        <v>0</v>
-      </c>
-      <c r="AE50">
-        <v>0</v>
-      </c>
-      <c r="AF50">
-        <v>0</v>
-      </c>
-      <c r="AG50">
-        <v>0</v>
-      </c>
-      <c r="AH50">
-        <v>0</v>
-      </c>
-      <c r="AI50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:35">
-      <c r="A51" t="s">
-        <v>41</v>
-      </c>
-      <c r="B51" s="2">
-        <v>45095</v>
-      </c>
-      <c r="C51" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51">
-        <v>16</v>
-      </c>
-      <c r="E51" t="s">
-        <v>121</v>
-      </c>
-      <c r="F51" t="s">
-        <v>171</v>
-      </c>
-      <c r="G51">
-        <v>1.86</v>
-      </c>
-      <c r="H51">
-        <v>3.3</v>
-      </c>
-      <c r="I51">
-        <v>3.55</v>
-      </c>
-      <c r="J51">
-        <v>1.06</v>
-      </c>
-      <c r="K51">
-        <v>8</v>
-      </c>
-      <c r="L51">
-        <v>1.33</v>
-      </c>
-      <c r="M51">
-        <v>3.1</v>
-      </c>
-      <c r="N51">
-        <v>2.05</v>
-      </c>
-      <c r="O51">
-        <v>1.67</v>
-      </c>
-      <c r="P51">
-        <v>1.41</v>
-      </c>
-      <c r="Q51">
-        <v>2.7</v>
-      </c>
-      <c r="R51">
-        <v>1.8</v>
-      </c>
-      <c r="S51">
-        <v>1.95</v>
-      </c>
-      <c r="T51">
-        <v>1.25</v>
-      </c>
-      <c r="U51">
-        <v>1.25</v>
-      </c>
-      <c r="V51">
-        <v>1.63</v>
-      </c>
-      <c r="W51">
-        <v>2.71</v>
-      </c>
-      <c r="X51">
-        <v>1.44</v>
-      </c>
-      <c r="Y51">
-        <v>1.73</v>
-      </c>
-      <c r="Z51">
-        <v>1.65</v>
-      </c>
-      <c r="AA51">
-        <v>3.38</v>
-      </c>
-      <c r="AB51">
-        <v>0</v>
-      </c>
-      <c r="AC51">
-        <v>0</v>
-      </c>
-      <c r="AD51">
-        <v>0</v>
-      </c>
-      <c r="AE51">
-        <v>0</v>
-      </c>
-      <c r="AF51">
-        <v>1.8</v>
-      </c>
-      <c r="AG51">
-        <v>0</v>
-      </c>
-      <c r="AH51">
-        <v>0</v>
-      </c>
-      <c r="AI51">
         <v>0</v>
       </c>
     </row>
